--- a/JupyterNotebooks/AvgHW/Gamma2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,25 +629,25 @@
         <v>1.074037199455971</v>
       </c>
       <c r="D3">
+        <v>0.9603221048847134</v>
+      </c>
+      <c r="E3">
+        <v>0.976136500073568</v>
+      </c>
+      <c r="F3">
+        <v>1.020426108589493</v>
+      </c>
+      <c r="G3">
+        <v>1.018538211488336</v>
+      </c>
+      <c r="H3">
         <v>0.9617345325269678</v>
       </c>
-      <c r="E3">
-        <v>1.018538211488336</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
+        <v>0.9617345325269678</v>
+      </c>
+      <c r="J3">
         <v>1.074037199455971</v>
-      </c>
-      <c r="G3">
-        <v>0.976136500073568</v>
-      </c>
-      <c r="H3">
-        <v>0.9603221048847133</v>
-      </c>
-      <c r="I3">
-        <v>1.020426108589493</v>
-      </c>
-      <c r="J3">
-        <v>0.9617345325269678</v>
       </c>
       <c r="K3">
         <v>1.074037199455971</v>
@@ -710,7 +662,7 @@
         <v>0.9901363720076519</v>
       </c>
       <c r="O3">
-        <v>0.9801982829666723</v>
+        <v>0.9801982829666724</v>
       </c>
       <c r="P3">
         <v>1.018103314490425</v>
@@ -728,7 +680,7 @@
         <v>1.001865776169842</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,25 +691,25 @@
         <v>1.138262121873935</v>
       </c>
       <c r="D4">
-        <v>0.9231870290168693</v>
+        <v>0.9238025583750485</v>
       </c>
       <c r="E4">
+        <v>0.9632479662361587</v>
+      </c>
+      <c r="F4">
+        <v>1.039718999030634</v>
+      </c>
+      <c r="G4">
         <v>1.03369411805726</v>
       </c>
-      <c r="F4">
+      <c r="H4">
+        <v>0.9231870290168694</v>
+      </c>
+      <c r="I4">
+        <v>0.9231870290168694</v>
+      </c>
+      <c r="J4">
         <v>1.138262121873935</v>
-      </c>
-      <c r="G4">
-        <v>0.963247966236159</v>
-      </c>
-      <c r="H4">
-        <v>0.9238025583750485</v>
-      </c>
-      <c r="I4">
-        <v>1.039718999030634</v>
-      </c>
-      <c r="J4">
-        <v>0.9231870290168693</v>
       </c>
       <c r="K4">
         <v>1.138262121873935</v>
@@ -790,7 +742,7 @@
         <v>1.003652132098318</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,25 +753,25 @@
         <v>1.280337471370155</v>
       </c>
       <c r="D5">
-        <v>0.8587980905098617</v>
+        <v>0.8592386789300931</v>
       </c>
       <c r="E5">
+        <v>0.9420081747560778</v>
+      </c>
+      <c r="F5">
+        <v>1.081976927996348</v>
+      </c>
+      <c r="G5">
         <v>1.068967937016586</v>
       </c>
-      <c r="F5">
+      <c r="H5">
+        <v>0.8587980905098616</v>
+      </c>
+      <c r="I5">
+        <v>0.8587980905098616</v>
+      </c>
+      <c r="J5">
         <v>1.280337471370155</v>
-      </c>
-      <c r="G5">
-        <v>0.9420081747560778</v>
-      </c>
-      <c r="H5">
-        <v>0.8592386789300931</v>
-      </c>
-      <c r="I5">
-        <v>1.081976927996348</v>
-      </c>
-      <c r="J5">
-        <v>0.8587980905098617</v>
       </c>
       <c r="K5">
         <v>1.280337471370155</v>
@@ -852,7 +804,7 @@
         <v>1.015221213429853</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,25 +815,25 @@
         <v>1.507706636350246</v>
       </c>
       <c r="D6">
+        <v>0.8154210776098136</v>
+      </c>
+      <c r="E6">
+        <v>0.8739737795248642</v>
+      </c>
+      <c r="F6">
+        <v>1.094929945247641</v>
+      </c>
+      <c r="G6">
+        <v>1.234296194710989</v>
+      </c>
+      <c r="H6">
         <v>0.7651491943234904</v>
       </c>
-      <c r="E6">
-        <v>1.234296194710989</v>
-      </c>
-      <c r="F6">
+      <c r="I6">
+        <v>0.7651491943234904</v>
+      </c>
+      <c r="J6">
         <v>1.507706636350246</v>
-      </c>
-      <c r="G6">
-        <v>0.8739737795248642</v>
-      </c>
-      <c r="H6">
-        <v>0.8154210776098136</v>
-      </c>
-      <c r="I6">
-        <v>1.094929945247641</v>
-      </c>
-      <c r="J6">
-        <v>0.7651491943234904</v>
       </c>
       <c r="K6">
         <v>1.507706636350246</v>
@@ -914,7 +866,7 @@
         <v>1.048579471294508</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9986919092084628</v>
+        <v>0.9986919092084635</v>
       </c>
       <c r="D7">
-        <v>0.9987249096886647</v>
+        <v>0.998642706458115</v>
       </c>
       <c r="E7">
+        <v>1.010395249276663</v>
+      </c>
+      <c r="F7">
+        <v>0.9996186332754168</v>
+      </c>
+      <c r="G7">
         <v>1.00035758696541</v>
       </c>
-      <c r="F7">
-        <v>0.9986919092084628</v>
-      </c>
-      <c r="G7">
-        <v>1.010395249276662</v>
-      </c>
       <c r="H7">
-        <v>0.9986427064581155</v>
+        <v>0.9987249096886645</v>
       </c>
       <c r="I7">
-        <v>0.9996186332754166</v>
+        <v>0.9987249096886645</v>
       </c>
       <c r="J7">
-        <v>0.9987249096886647</v>
+        <v>0.9986919092084635</v>
       </c>
       <c r="K7">
-        <v>0.9986919092084628</v>
+        <v>0.9986919092084635</v>
       </c>
       <c r="L7">
         <v>1.00035758696541</v>
@@ -958,25 +910,25 @@
         <v>0.9995412483270372</v>
       </c>
       <c r="O7">
-        <v>0.9992417343707299</v>
+        <v>0.9992417343707297</v>
       </c>
       <c r="P7">
-        <v>0.9992581352875124</v>
+        <v>0.9992581352875126</v>
       </c>
       <c r="Q7">
-        <v>0.9992581352875124</v>
+        <v>0.9992581352875126</v>
       </c>
       <c r="R7">
-        <v>0.99911657876775</v>
+        <v>0.9991165787677504</v>
       </c>
       <c r="S7">
-        <v>0.99911657876775</v>
+        <v>0.9991165787677504</v>
       </c>
       <c r="T7">
         <v>1.001071832478789</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,49 +936,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9967473163052355</v>
+        <v>0.9967473163052357</v>
       </c>
       <c r="D8">
-        <v>0.9956516222334422</v>
+        <v>0.9968286000931585</v>
       </c>
       <c r="E8">
-        <v>1.002170472830233</v>
+        <v>1.023971432419171</v>
       </c>
       <c r="F8">
-        <v>0.9967473163052355</v>
+        <v>0.9994091816498004</v>
       </c>
       <c r="G8">
-        <v>1.02397143241917</v>
+        <v>1.002170472830231</v>
       </c>
       <c r="H8">
-        <v>0.9968286000931585</v>
+        <v>0.9956516222334424</v>
       </c>
       <c r="I8">
-        <v>0.9994091816498004</v>
+        <v>0.9956516222334424</v>
       </c>
       <c r="J8">
-        <v>0.9956516222334422</v>
+        <v>0.9967473163052357</v>
       </c>
       <c r="K8">
-        <v>0.9967473163052355</v>
+        <v>0.9967473163052357</v>
       </c>
       <c r="L8">
-        <v>1.002170472830233</v>
+        <v>1.002170472830231</v>
       </c>
       <c r="M8">
-        <v>0.9989110475318373</v>
+        <v>0.9989110475318369</v>
       </c>
       <c r="N8">
-        <v>0.9989110475318373</v>
+        <v>0.9989110475318369</v>
       </c>
       <c r="O8">
-        <v>0.9982168983856111</v>
+        <v>0.9982168983856109</v>
       </c>
       <c r="P8">
-        <v>0.9981898037896367</v>
+        <v>0.9981898037896365</v>
       </c>
       <c r="Q8">
-        <v>0.9981898037896366</v>
+        <v>0.9981898037896365</v>
       </c>
       <c r="R8">
         <v>0.9978291819185363</v>
@@ -1038,7 +990,7 @@
         <v>1.002463104255173</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,25 +1001,25 @@
         <v>0.9955668843270772</v>
       </c>
       <c r="D9">
+        <v>0.9945092728125664</v>
+      </c>
+      <c r="E9">
+        <v>1.029499967381604</v>
+      </c>
+      <c r="F9">
+        <v>0.9998704600604559</v>
+      </c>
+      <c r="G9">
+        <v>1.004689531097651</v>
+      </c>
+      <c r="H9">
         <v>0.9949225394193488</v>
       </c>
-      <c r="E9">
-        <v>1.004689531097651</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
+        <v>0.9949225394193488</v>
+      </c>
+      <c r="J9">
         <v>0.9955668843270772</v>
-      </c>
-      <c r="G9">
-        <v>1.029499967381604</v>
-      </c>
-      <c r="H9">
-        <v>0.9945092728125664</v>
-      </c>
-      <c r="I9">
-        <v>0.9998704600604559</v>
-      </c>
-      <c r="J9">
-        <v>0.9949225394193488</v>
       </c>
       <c r="K9">
         <v>0.9955668843270772</v>
@@ -1100,7 +1052,7 @@
         <v>1.00317644251645</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,25 +1063,25 @@
         <v>0.9904385140229781</v>
       </c>
       <c r="D10">
+        <v>0.988663940932492</v>
+      </c>
+      <c r="E10">
+        <v>1.068853756559306</v>
+      </c>
+      <c r="F10">
+        <v>0.9987303631385309</v>
+      </c>
+      <c r="G10">
+        <v>1.00788138248371</v>
+      </c>
+      <c r="H10">
         <v>0.9888700872009636</v>
       </c>
-      <c r="E10">
-        <v>1.00788138248371</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
+        <v>0.9888700872009636</v>
+      </c>
+      <c r="J10">
         <v>0.9904385140229781</v>
-      </c>
-      <c r="G10">
-        <v>1.068853756559306</v>
-      </c>
-      <c r="H10">
-        <v>0.988663940932492</v>
-      </c>
-      <c r="I10">
-        <v>0.9987303631385309</v>
-      </c>
-      <c r="J10">
-        <v>0.9888700872009636</v>
       </c>
       <c r="K10">
         <v>0.9904385140229781</v>
@@ -1162,7 +1114,7 @@
         <v>1.00723967405633</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,25 +1125,25 @@
         <v>0.9846151822120509</v>
       </c>
       <c r="D11">
+        <v>0.9810491078817641</v>
+      </c>
+      <c r="E11">
+        <v>1.102738078609217</v>
+      </c>
+      <c r="F11">
+        <v>0.9985917648623746</v>
+      </c>
+      <c r="G11">
+        <v>1.019972469259182</v>
+      </c>
+      <c r="H11">
         <v>0.9814178275291956</v>
       </c>
-      <c r="E11">
-        <v>1.019972469259182</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
+        <v>0.9814178275291956</v>
+      </c>
+      <c r="J11">
         <v>0.9846151822120509</v>
-      </c>
-      <c r="G11">
-        <v>1.102738078609217</v>
-      </c>
-      <c r="H11">
-        <v>0.9810491078817641</v>
-      </c>
-      <c r="I11">
-        <v>0.9985917648623746</v>
-      </c>
-      <c r="J11">
-        <v>0.9814178275291956</v>
       </c>
       <c r="K11">
         <v>0.9846151822120509</v>
@@ -1224,7 +1176,7 @@
         <v>1.011397405058964</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,40 +1184,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.532248593482895</v>
+        <v>1.532248593482896</v>
       </c>
       <c r="D12">
-        <v>0.8486463242385631</v>
+        <v>1.23037663066407</v>
       </c>
       <c r="E12">
-        <v>0.6693754354963697</v>
+        <v>0.08048583594240753</v>
       </c>
       <c r="F12">
-        <v>1.532248593482895</v>
+        <v>0.9583055281286248</v>
       </c>
       <c r="G12">
-        <v>0.08048583594240773</v>
+        <v>0.6693754354963696</v>
       </c>
       <c r="H12">
-        <v>1.23037663066407</v>
+        <v>0.8486463242385629</v>
       </c>
       <c r="I12">
-        <v>0.9583055281286249</v>
+        <v>0.8486463242385629</v>
       </c>
       <c r="J12">
-        <v>0.8486463242385631</v>
+        <v>1.532248593482896</v>
       </c>
       <c r="K12">
-        <v>1.532248593482895</v>
+        <v>1.532248593482896</v>
       </c>
       <c r="L12">
-        <v>0.6693754354963697</v>
+        <v>0.6693754354963696</v>
       </c>
       <c r="M12">
-        <v>0.7590108798674664</v>
+        <v>0.7590108798674662</v>
       </c>
       <c r="N12">
-        <v>0.7590108798674664</v>
+        <v>0.7590108798674662</v>
       </c>
       <c r="O12">
         <v>0.9161327967996676</v>
@@ -1286,7 +1238,7 @@
         <v>0.886573057992155</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,25 +1249,25 @@
         <v>0.7371114305529008</v>
       </c>
       <c r="D13">
-        <v>1.430707025136992</v>
+        <v>0.9647145813316587</v>
       </c>
       <c r="E13">
+        <v>1.06999539874635</v>
+      </c>
+      <c r="F13">
+        <v>0.9929795423844694</v>
+      </c>
+      <c r="G13">
         <v>1.136844496389179</v>
       </c>
-      <c r="F13">
+      <c r="H13">
+        <v>1.430707025136993</v>
+      </c>
+      <c r="I13">
+        <v>1.430707025136993</v>
+      </c>
+      <c r="J13">
         <v>0.7371114305529008</v>
-      </c>
-      <c r="G13">
-        <v>1.06999539874635</v>
-      </c>
-      <c r="H13">
-        <v>0.9647145813316587</v>
-      </c>
-      <c r="I13">
-        <v>0.9929795423844694</v>
-      </c>
-      <c r="J13">
-        <v>1.430707025136992</v>
       </c>
       <c r="K13">
         <v>0.7371114305529008</v>
@@ -1348,7 +1300,7 @@
         <v>1.055392079090258</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,46 +1311,46 @@
         <v>1.594468388264348</v>
       </c>
       <c r="D14">
-        <v>0.4790915275389507</v>
+        <v>1.297889783984052</v>
       </c>
       <c r="E14">
-        <v>0.6985944381668218</v>
+        <v>0.07012133643017217</v>
       </c>
       <c r="F14">
+        <v>0.9452800615985772</v>
+      </c>
+      <c r="G14">
+        <v>0.6985944381668217</v>
+      </c>
+      <c r="H14">
+        <v>0.4790915275389506</v>
+      </c>
+      <c r="I14">
+        <v>0.4790915275389506</v>
+      </c>
+      <c r="J14">
         <v>1.594468388264348</v>
-      </c>
-      <c r="G14">
-        <v>0.07012133643017227</v>
-      </c>
-      <c r="H14">
-        <v>1.297889783984052</v>
-      </c>
-      <c r="I14">
-        <v>0.9452800615985772</v>
-      </c>
-      <c r="J14">
-        <v>0.4790915275389507</v>
       </c>
       <c r="K14">
         <v>1.594468388264348</v>
       </c>
       <c r="L14">
-        <v>0.6985944381668218</v>
+        <v>0.6985944381668217</v>
       </c>
       <c r="M14">
-        <v>0.5888429828528863</v>
+        <v>0.5888429828528862</v>
       </c>
       <c r="N14">
-        <v>0.5888429828528863</v>
+        <v>0.5888429828528862</v>
       </c>
       <c r="O14">
         <v>0.8251919165632747</v>
       </c>
       <c r="P14">
-        <v>0.9240514513233734</v>
+        <v>0.9240514513233733</v>
       </c>
       <c r="Q14">
-        <v>0.9240514513233736</v>
+        <v>0.9240514513233732</v>
       </c>
       <c r="R14">
         <v>1.091655685558617</v>
@@ -1407,10 +1359,10 @@
         <v>1.091655685558617</v>
       </c>
       <c r="T14">
-        <v>0.8475742559971536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.8475742559971534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,25 +1373,25 @@
         <v>0.795543926180049</v>
       </c>
       <c r="D15">
+        <v>0.8607575583148165</v>
+      </c>
+      <c r="E15">
+        <v>0.9934406675015172</v>
+      </c>
+      <c r="F15">
+        <v>1.028542702048549</v>
+      </c>
+      <c r="G15">
+        <v>1.121593773365537</v>
+      </c>
+      <c r="H15">
         <v>1.862951715151143</v>
       </c>
-      <c r="E15">
-        <v>1.121593773365537</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
+        <v>1.862951715151143</v>
+      </c>
+      <c r="J15">
         <v>0.795543926180049</v>
-      </c>
-      <c r="G15">
-        <v>0.9934406675015172</v>
-      </c>
-      <c r="H15">
-        <v>0.8607575583148167</v>
-      </c>
-      <c r="I15">
-        <v>1.028542702048549</v>
-      </c>
-      <c r="J15">
-        <v>1.862951715151143</v>
       </c>
       <c r="K15">
         <v>0.795543926180049</v>
@@ -1472,7 +1424,7 @@
         <v>1.110471723760269</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.013301115291714</v>
+        <v>2.261151865816045</v>
       </c>
       <c r="D16">
-        <v>1.001620835608678</v>
+        <v>0.2904617447838431</v>
       </c>
       <c r="E16">
-        <v>0.9931303881649857</v>
+        <v>0.6914148673797788</v>
       </c>
       <c r="F16">
-        <v>1.013301115291714</v>
+        <v>1.379051168924194</v>
       </c>
       <c r="G16">
-        <v>1.006695315098573</v>
+        <v>1.295368925818448</v>
       </c>
       <c r="H16">
-        <v>1.00049987854744</v>
+        <v>0.1980947005038654</v>
       </c>
       <c r="I16">
-        <v>0.9955417811652437</v>
+        <v>0.1980947005038654</v>
       </c>
       <c r="J16">
-        <v>1.001620835608678</v>
+        <v>2.261151865816045</v>
       </c>
       <c r="K16">
-        <v>1.013301115291714</v>
+        <v>2.261151865816045</v>
       </c>
       <c r="L16">
-        <v>0.9931303881649857</v>
+        <v>1.295368925818448</v>
       </c>
       <c r="M16">
-        <v>0.997375611886832</v>
+        <v>0.7467318131611567</v>
       </c>
       <c r="N16">
-        <v>0.997375611886832</v>
+        <v>0.7467318131611567</v>
       </c>
       <c r="O16">
-        <v>0.9984170341070348</v>
+        <v>0.5946417903687188</v>
       </c>
       <c r="P16">
-        <v>1.002684113021793</v>
+        <v>1.251538497379453</v>
       </c>
       <c r="Q16">
-        <v>1.002684113021793</v>
+        <v>1.251538497379453</v>
       </c>
       <c r="R16">
-        <v>1.005338363589273</v>
+        <v>1.503941839488601</v>
       </c>
       <c r="S16">
-        <v>1.005338363589273</v>
+        <v>1.503941839488601</v>
       </c>
       <c r="T16">
-        <v>1.001798218979439</v>
+        <v>1.019257212204362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9741069651830053</v>
+        <v>1.806510392057525</v>
       </c>
       <c r="D17">
-        <v>1.002678603909377</v>
+        <v>0.4664397746902031</v>
       </c>
       <c r="E17">
-        <v>1.007977303261984</v>
+        <v>1.091421424889459</v>
       </c>
       <c r="F17">
-        <v>0.9741069651830053</v>
+        <v>1.254848115009914</v>
       </c>
       <c r="G17">
-        <v>1.009861156254058</v>
+        <v>1.222729963233155</v>
       </c>
       <c r="H17">
-        <v>0.9970626854889972</v>
+        <v>0.3944222011070058</v>
       </c>
       <c r="I17">
-        <v>1.004663795704196</v>
+        <v>0.3944222011070058</v>
       </c>
       <c r="J17">
-        <v>1.002678603909377</v>
+        <v>1.806510392057525</v>
       </c>
       <c r="K17">
-        <v>0.9741069651830053</v>
+        <v>1.806510392057525</v>
       </c>
       <c r="L17">
-        <v>1.007977303261984</v>
+        <v>1.222729963233155</v>
       </c>
       <c r="M17">
-        <v>1.005327953585681</v>
+        <v>0.8085760821700804</v>
       </c>
       <c r="N17">
-        <v>1.005327953585681</v>
+        <v>0.8085760821700804</v>
       </c>
       <c r="O17">
-        <v>1.002572864220119</v>
+        <v>0.6945306463434546</v>
       </c>
       <c r="P17">
-        <v>0.9949209574514555</v>
+        <v>1.141220852132562</v>
       </c>
       <c r="Q17">
-        <v>0.9949209574514555</v>
+        <v>1.141220852132562</v>
       </c>
       <c r="R17">
-        <v>0.989717459384343</v>
+        <v>1.307543237113802</v>
       </c>
       <c r="S17">
-        <v>0.989717459384343</v>
+        <v>1.307543237113802</v>
       </c>
       <c r="T17">
-        <v>0.9993917516336029</v>
+        <v>1.03939531183121</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.078963719046365</v>
+        <v>0.901062084439317</v>
       </c>
       <c r="D18">
-        <v>0.9842957564461348</v>
+        <v>0.8178636624786449</v>
       </c>
       <c r="E18">
-        <v>0.9951814378705847</v>
+        <v>1.875185471559175</v>
       </c>
       <c r="F18">
-        <v>1.078963719046365</v>
+        <v>1.008545831452807</v>
       </c>
       <c r="G18">
-        <v>1.009978991006945</v>
+        <v>1.079878124238675</v>
       </c>
       <c r="H18">
-        <v>0.9868364384981849</v>
+        <v>0.7863628291626191</v>
       </c>
       <c r="I18">
-        <v>0.9858556528144221</v>
+        <v>0.7863628291626191</v>
       </c>
       <c r="J18">
-        <v>0.9842957564461348</v>
+        <v>0.901062084439317</v>
       </c>
       <c r="K18">
-        <v>1.078963719046365</v>
+        <v>0.901062084439317</v>
       </c>
       <c r="L18">
-        <v>0.9951814378705847</v>
+        <v>1.079878124238675</v>
       </c>
       <c r="M18">
-        <v>0.9897385971583597</v>
+        <v>0.9331204767006469</v>
       </c>
       <c r="N18">
-        <v>0.9897385971583597</v>
+        <v>0.9331204767006469</v>
       </c>
       <c r="O18">
-        <v>0.9887712109383013</v>
+        <v>0.8947015386266463</v>
       </c>
       <c r="P18">
-        <v>1.019480304454361</v>
+        <v>0.9224343459468702</v>
       </c>
       <c r="Q18">
-        <v>1.019480304454361</v>
+        <v>0.9224343459468702</v>
       </c>
       <c r="R18">
-        <v>1.034351158102362</v>
+        <v>0.9170912805699819</v>
       </c>
       <c r="S18">
-        <v>1.034351158102362</v>
+        <v>0.9170912805699819</v>
       </c>
       <c r="T18">
-        <v>1.006851999280439</v>
+        <v>1.078149667221873</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.847211852468517</v>
+      </c>
+      <c r="D19">
+        <v>0.7890250786795331</v>
+      </c>
+      <c r="E19">
+        <v>2.157825201840654</v>
+      </c>
+      <c r="F19">
+        <v>0.9808210240298643</v>
+      </c>
+      <c r="G19">
+        <v>1.057906549276304</v>
+      </c>
+      <c r="H19">
+        <v>0.9072597124732652</v>
+      </c>
+      <c r="I19">
+        <v>0.9072597124732652</v>
+      </c>
+      <c r="J19">
+        <v>0.847211852468517</v>
+      </c>
+      <c r="K19">
+        <v>0.847211852468517</v>
+      </c>
+      <c r="L19">
+        <v>1.057906549276304</v>
+      </c>
+      <c r="M19">
+        <v>0.9825831308747843</v>
+      </c>
+      <c r="N19">
+        <v>0.9825831308747843</v>
+      </c>
+      <c r="O19">
+        <v>0.9180637801430339</v>
+      </c>
+      <c r="P19">
+        <v>0.9374593714060285</v>
+      </c>
+      <c r="Q19">
+        <v>0.9374593714060286</v>
+      </c>
+      <c r="R19">
+        <v>0.9148974916716508</v>
+      </c>
+      <c r="S19">
+        <v>0.9148974916716508</v>
+      </c>
+      <c r="T19">
+        <v>1.12334156979469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.013301115291715</v>
+      </c>
+      <c r="D20">
+        <v>1.00049987854744</v>
+      </c>
+      <c r="E20">
+        <v>1.006695315098574</v>
+      </c>
+      <c r="F20">
+        <v>0.9955417811652437</v>
+      </c>
+      <c r="G20">
+        <v>0.9931303881649857</v>
+      </c>
+      <c r="H20">
+        <v>1.001620835608678</v>
+      </c>
+      <c r="I20">
+        <v>1.001620835608678</v>
+      </c>
+      <c r="J20">
+        <v>1.013301115291715</v>
+      </c>
+      <c r="K20">
+        <v>1.013301115291715</v>
+      </c>
+      <c r="L20">
+        <v>0.9931303881649857</v>
+      </c>
+      <c r="M20">
+        <v>0.997375611886832</v>
+      </c>
+      <c r="N20">
+        <v>0.997375611886832</v>
+      </c>
+      <c r="O20">
+        <v>0.9984170341070348</v>
+      </c>
+      <c r="P20">
+        <v>1.002684113021793</v>
+      </c>
+      <c r="Q20">
+        <v>1.002684113021793</v>
+      </c>
+      <c r="R20">
+        <v>1.005338363589273</v>
+      </c>
+      <c r="S20">
+        <v>1.005338363589273</v>
+      </c>
+      <c r="T20">
+        <v>1.001798218979439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9741069651830061</v>
+      </c>
+      <c r="D21">
+        <v>0.9970626854889972</v>
+      </c>
+      <c r="E21">
+        <v>1.009861156254058</v>
+      </c>
+      <c r="F21">
+        <v>1.004663795704197</v>
+      </c>
+      <c r="G21">
+        <v>1.007977303261985</v>
+      </c>
+      <c r="H21">
+        <v>1.002678603909377</v>
+      </c>
+      <c r="I21">
+        <v>1.002678603909377</v>
+      </c>
+      <c r="J21">
+        <v>0.9741069651830061</v>
+      </c>
+      <c r="K21">
+        <v>0.9741069651830061</v>
+      </c>
+      <c r="L21">
+        <v>1.007977303261985</v>
+      </c>
+      <c r="M21">
+        <v>1.005327953585681</v>
+      </c>
+      <c r="N21">
+        <v>1.005327953585681</v>
+      </c>
+      <c r="O21">
+        <v>1.00257286422012</v>
+      </c>
+      <c r="P21">
+        <v>0.994920957451456</v>
+      </c>
+      <c r="Q21">
+        <v>0.994920957451456</v>
+      </c>
+      <c r="R21">
+        <v>0.9897174593843436</v>
+      </c>
+      <c r="S21">
+        <v>0.9897174593843436</v>
+      </c>
+      <c r="T21">
+        <v>0.9993917516336034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.078963719046366</v>
+      </c>
+      <c r="D22">
+        <v>0.9868364384981841</v>
+      </c>
+      <c r="E22">
+        <v>1.009978991006945</v>
+      </c>
+      <c r="F22">
+        <v>0.9858556528144227</v>
+      </c>
+      <c r="G22">
+        <v>0.9951814378705848</v>
+      </c>
+      <c r="H22">
+        <v>0.9842957564461347</v>
+      </c>
+      <c r="I22">
+        <v>0.9842957564461347</v>
+      </c>
+      <c r="J22">
+        <v>1.078963719046366</v>
+      </c>
+      <c r="K22">
+        <v>1.078963719046366</v>
+      </c>
+      <c r="L22">
+        <v>0.9951814378705848</v>
+      </c>
+      <c r="M22">
+        <v>0.9897385971583597</v>
+      </c>
+      <c r="N22">
+        <v>0.9897385971583597</v>
+      </c>
+      <c r="O22">
+        <v>0.9887712109383012</v>
+      </c>
+      <c r="P22">
+        <v>1.019480304454362</v>
+      </c>
+      <c r="Q22">
+        <v>1.019480304454362</v>
+      </c>
+      <c r="R22">
+        <v>1.034351158102363</v>
+      </c>
+      <c r="S22">
+        <v>1.034351158102363</v>
+      </c>
+      <c r="T22">
+        <v>1.00685199928044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.253299201028837</v>
       </c>
-      <c r="D19">
-        <v>0.9734811062813213</v>
-      </c>
-      <c r="E19">
+      <c r="D23">
+        <v>0.9728581893823705</v>
+      </c>
+      <c r="E23">
+        <v>0.9770852426213185</v>
+      </c>
+      <c r="F23">
+        <v>0.9728297900206276</v>
+      </c>
+      <c r="G23">
         <v>0.92597314068929</v>
       </c>
-      <c r="F19">
+      <c r="H23">
+        <v>0.9734811062813215</v>
+      </c>
+      <c r="I23">
+        <v>0.9734811062813215</v>
+      </c>
+      <c r="J23">
         <v>1.253299201028837</v>
       </c>
-      <c r="G19">
-        <v>0.9770852426213185</v>
-      </c>
-      <c r="H19">
-        <v>0.9728581893823705</v>
-      </c>
-      <c r="I19">
-        <v>0.9728297900206276</v>
-      </c>
-      <c r="J19">
-        <v>0.9734811062813213</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.253299201028837</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.92597314068929</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9497271234853057</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9497271234853057</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9574374787843274</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.050917815999816</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.050917815999816</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.101513162257071</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.101513162257071</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.012587778337294</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.074037199455971</v>
+        <v>0.9173150968069193</v>
       </c>
       <c r="D3">
-        <v>0.9603221048847134</v>
+        <v>0.779800768717995</v>
       </c>
       <c r="E3">
-        <v>0.976136500073568</v>
+        <v>2.099596649151557</v>
       </c>
       <c r="F3">
-        <v>1.020426108589493</v>
+        <v>0.9995864793659984</v>
       </c>
       <c r="G3">
-        <v>1.018538211488336</v>
+        <v>1.077555948217582</v>
       </c>
       <c r="H3">
-        <v>0.9617345325269678</v>
+        <v>0.7637850706686896</v>
       </c>
       <c r="I3">
-        <v>0.9617345325269678</v>
+        <v>0.7637850706686896</v>
       </c>
       <c r="J3">
-        <v>1.074037199455971</v>
+        <v>0.9173150968069193</v>
       </c>
       <c r="K3">
-        <v>1.074037199455971</v>
+        <v>0.9173150968069193</v>
       </c>
       <c r="L3">
-        <v>1.018538211488336</v>
+        <v>1.077555948217582</v>
       </c>
       <c r="M3">
-        <v>0.9901363720076519</v>
+        <v>0.9206705094431358</v>
       </c>
       <c r="N3">
-        <v>0.9901363720076519</v>
+        <v>0.9206705094431358</v>
       </c>
       <c r="O3">
-        <v>0.9801982829666724</v>
+        <v>0.8737139292014221</v>
       </c>
       <c r="P3">
-        <v>1.018103314490425</v>
+        <v>0.9195520385643969</v>
       </c>
       <c r="Q3">
-        <v>1.018103314490425</v>
+        <v>0.9195520385643968</v>
       </c>
       <c r="R3">
-        <v>1.032086785731811</v>
+        <v>0.9189928031250274</v>
       </c>
       <c r="S3">
-        <v>1.032086785731811</v>
+        <v>0.9189928031250274</v>
       </c>
       <c r="T3">
-        <v>1.001865776169842</v>
+        <v>1.106273335488123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.138262121873935</v>
+        <v>0.9064504746358887</v>
       </c>
       <c r="D4">
-        <v>0.9238025583750485</v>
+        <v>0.8014400346551103</v>
       </c>
       <c r="E4">
-        <v>0.9632479662361587</v>
+        <v>1.986311135073251</v>
       </c>
       <c r="F4">
-        <v>1.039718999030634</v>
+        <v>1.002729882841967</v>
       </c>
       <c r="G4">
-        <v>1.03369411805726</v>
+        <v>1.075898809980247</v>
       </c>
       <c r="H4">
-        <v>0.9231870290168694</v>
+        <v>0.7781424406559865</v>
       </c>
       <c r="I4">
-        <v>0.9231870290168694</v>
+        <v>0.7781424406559865</v>
       </c>
       <c r="J4">
-        <v>1.138262121873935</v>
+        <v>0.9064504746358887</v>
       </c>
       <c r="K4">
-        <v>1.138262121873935</v>
+        <v>0.9064504746358887</v>
       </c>
       <c r="L4">
-        <v>1.03369411805726</v>
+        <v>1.075898809980247</v>
       </c>
       <c r="M4">
-        <v>0.9784405735370647</v>
+        <v>0.9270206253181169</v>
       </c>
       <c r="N4">
-        <v>0.9784405735370647</v>
+        <v>0.9270206253181169</v>
       </c>
       <c r="O4">
-        <v>0.9602279018163927</v>
+        <v>0.8851604284304481</v>
       </c>
       <c r="P4">
-        <v>1.031714422982688</v>
+        <v>0.9201639084240408</v>
       </c>
       <c r="Q4">
-        <v>1.031714422982688</v>
+        <v>0.9201639084240408</v>
       </c>
       <c r="R4">
-        <v>1.0583513477055</v>
+        <v>0.9167355499770028</v>
       </c>
       <c r="S4">
-        <v>1.0583513477055</v>
+        <v>0.9167355499770028</v>
       </c>
       <c r="T4">
-        <v>1.003652132098318</v>
+        <v>1.091828796307075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.280337471370155</v>
+        <v>0.9351283151231803</v>
       </c>
       <c r="D5">
-        <v>0.8592386789300931</v>
+        <v>0.7391408913026961</v>
       </c>
       <c r="E5">
-        <v>0.9420081747560778</v>
+        <v>2.317986448638814</v>
       </c>
       <c r="F5">
-        <v>1.081976927996348</v>
+        <v>0.9933014641778959</v>
       </c>
       <c r="G5">
-        <v>1.068967937016586</v>
+        <v>1.081560767644204</v>
       </c>
       <c r="H5">
-        <v>0.8587980905098616</v>
+        <v>0.736280688673423</v>
       </c>
       <c r="I5">
-        <v>0.8587980905098616</v>
+        <v>0.736280688673423</v>
       </c>
       <c r="J5">
-        <v>1.280337471370155</v>
+        <v>0.9351283151231803</v>
       </c>
       <c r="K5">
-        <v>1.280337471370155</v>
+        <v>0.9351283151231803</v>
       </c>
       <c r="L5">
-        <v>1.068967937016586</v>
+        <v>1.081560767644204</v>
       </c>
       <c r="M5">
-        <v>0.9638830137632239</v>
+        <v>0.9089207281588136</v>
       </c>
       <c r="N5">
-        <v>0.9638830137632239</v>
+        <v>0.9089207281588136</v>
       </c>
       <c r="O5">
-        <v>0.929001568818847</v>
+        <v>0.8523274492067744</v>
       </c>
       <c r="P5">
-        <v>1.069367832965534</v>
+        <v>0.9176565904802692</v>
       </c>
       <c r="Q5">
-        <v>1.069367832965534</v>
+        <v>0.9176565904802692</v>
       </c>
       <c r="R5">
-        <v>1.122110242566689</v>
+        <v>0.9220245216409969</v>
       </c>
       <c r="S5">
-        <v>1.122110242566689</v>
+        <v>0.9220245216409969</v>
       </c>
       <c r="T5">
-        <v>1.015221213429853</v>
+        <v>1.133899762593369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.507706636350246</v>
+        <v>0.9506783323596586</v>
       </c>
       <c r="D6">
-        <v>0.8154210776098136</v>
+        <v>0.7013149854488629</v>
       </c>
       <c r="E6">
-        <v>0.8739737795248642</v>
+        <v>2.528797514787497</v>
       </c>
       <c r="F6">
-        <v>1.094929945247641</v>
+        <v>0.9862391838636361</v>
       </c>
       <c r="G6">
-        <v>1.234296194710989</v>
+        <v>1.088802818329545</v>
       </c>
       <c r="H6">
-        <v>0.7651491943234904</v>
+        <v>0.7084452565522722</v>
       </c>
       <c r="I6">
-        <v>0.7651491943234904</v>
+        <v>0.7084452565522722</v>
       </c>
       <c r="J6">
-        <v>1.507706636350246</v>
+        <v>0.9506783323596586</v>
       </c>
       <c r="K6">
-        <v>1.507706636350246</v>
+        <v>0.9506783323596586</v>
       </c>
       <c r="L6">
-        <v>1.234296194710989</v>
+        <v>1.088802818329545</v>
       </c>
       <c r="M6">
-        <v>0.9997226945172397</v>
+        <v>0.8986240374409087</v>
       </c>
       <c r="N6">
-        <v>0.9997226945172397</v>
+        <v>0.8986240374409087</v>
       </c>
       <c r="O6">
-        <v>0.9382888222147644</v>
+        <v>0.8328543534435601</v>
       </c>
       <c r="P6">
-        <v>1.169050675128242</v>
+        <v>0.9159754690804919</v>
       </c>
       <c r="Q6">
-        <v>1.169050675128242</v>
+        <v>0.9159754690804921</v>
       </c>
       <c r="R6">
-        <v>1.253714665433743</v>
+        <v>0.9246511849002836</v>
       </c>
       <c r="S6">
-        <v>1.253714665433743</v>
+        <v>0.9246511849002836</v>
       </c>
       <c r="T6">
-        <v>1.048579471294508</v>
+        <v>1.160713015223579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9986919092084635</v>
+        <v>0.9597996996129741</v>
       </c>
       <c r="D7">
-        <v>0.998642706458115</v>
+        <v>0.6096516065198487</v>
       </c>
       <c r="E7">
-        <v>1.010395249276663</v>
+        <v>2.27803982315139</v>
       </c>
       <c r="F7">
-        <v>0.9996186332754168</v>
+        <v>0.8513733949664729</v>
       </c>
       <c r="G7">
-        <v>1.00035758696541</v>
+        <v>1.182963403347496</v>
       </c>
       <c r="H7">
-        <v>0.9987249096886645</v>
+        <v>1.907143435731163</v>
       </c>
       <c r="I7">
-        <v>0.9987249096886645</v>
+        <v>1.907143435731163</v>
       </c>
       <c r="J7">
-        <v>0.9986919092084635</v>
+        <v>0.9597996996129741</v>
       </c>
       <c r="K7">
-        <v>0.9986919092084635</v>
+        <v>0.9597996996129741</v>
       </c>
       <c r="L7">
-        <v>1.00035758696541</v>
+        <v>1.182963403347496</v>
       </c>
       <c r="M7">
-        <v>0.9995412483270372</v>
+        <v>1.54505341953933</v>
       </c>
       <c r="N7">
-        <v>0.9995412483270372</v>
+        <v>1.54505341953933</v>
       </c>
       <c r="O7">
-        <v>0.9992417343707297</v>
+        <v>1.233252815199503</v>
       </c>
       <c r="P7">
-        <v>0.9992581352875126</v>
+        <v>1.349968846230545</v>
       </c>
       <c r="Q7">
-        <v>0.9992581352875126</v>
+        <v>1.349968846230544</v>
       </c>
       <c r="R7">
-        <v>0.9991165787677504</v>
+        <v>1.252426559576152</v>
       </c>
       <c r="S7">
-        <v>0.9991165787677504</v>
+        <v>1.252426559576152</v>
       </c>
       <c r="T7">
-        <v>1.001071832478789</v>
+        <v>1.298161893888224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9967473163052357</v>
+        <v>0.9540960042913975</v>
       </c>
       <c r="D8">
-        <v>0.9968286000931585</v>
+        <v>0.6066074087884668</v>
       </c>
       <c r="E8">
-        <v>1.023971432419171</v>
+        <v>2.309140736774177</v>
       </c>
       <c r="F8">
-        <v>0.9994091816498004</v>
+        <v>0.8509345942798728</v>
       </c>
       <c r="G8">
-        <v>1.002170472830231</v>
+        <v>1.186441255076993</v>
       </c>
       <c r="H8">
-        <v>0.9956516222334424</v>
+        <v>1.897366740959616</v>
       </c>
       <c r="I8">
-        <v>0.9956516222334424</v>
+        <v>1.897366740959616</v>
       </c>
       <c r="J8">
-        <v>0.9967473163052357</v>
+        <v>0.9540960042913975</v>
       </c>
       <c r="K8">
-        <v>0.9967473163052357</v>
+        <v>0.9540960042913975</v>
       </c>
       <c r="L8">
-        <v>1.002170472830231</v>
+        <v>1.186441255076993</v>
       </c>
       <c r="M8">
-        <v>0.9989110475318369</v>
+        <v>1.541903998018304</v>
       </c>
       <c r="N8">
-        <v>0.9989110475318369</v>
+        <v>1.541903998018304</v>
       </c>
       <c r="O8">
-        <v>0.9982168983856109</v>
+        <v>1.230138468275025</v>
       </c>
       <c r="P8">
-        <v>0.9981898037896365</v>
+        <v>1.345968000109335</v>
       </c>
       <c r="Q8">
-        <v>0.9981898037896365</v>
+        <v>1.345968000109335</v>
       </c>
       <c r="R8">
-        <v>0.9978291819185363</v>
+        <v>1.248000001154851</v>
       </c>
       <c r="S8">
-        <v>0.9978291819185363</v>
+        <v>1.248000001154851</v>
       </c>
       <c r="T8">
-        <v>1.002463104255173</v>
+        <v>1.300764456695087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9955668843270772</v>
+        <v>0.9494342610372251</v>
       </c>
       <c r="D9">
-        <v>0.9945092728125664</v>
+        <v>0.6046911769208797</v>
       </c>
       <c r="E9">
-        <v>1.029499967381604</v>
+        <v>2.348039657012484</v>
       </c>
       <c r="F9">
-        <v>0.9998704600604559</v>
+        <v>0.8483670362569703</v>
       </c>
       <c r="G9">
-        <v>1.004689531097651</v>
+        <v>1.1847836251712</v>
       </c>
       <c r="H9">
-        <v>0.9949225394193488</v>
+        <v>1.891769852920768</v>
       </c>
       <c r="I9">
-        <v>0.9949225394193488</v>
+        <v>1.891769852920768</v>
       </c>
       <c r="J9">
-        <v>0.9955668843270772</v>
+        <v>0.9494342610372251</v>
       </c>
       <c r="K9">
-        <v>0.9955668843270772</v>
+        <v>0.9494342610372251</v>
       </c>
       <c r="L9">
-        <v>1.004689531097651</v>
+        <v>1.1847836251712</v>
       </c>
       <c r="M9">
-        <v>0.9998060352584999</v>
+        <v>1.538276739045984</v>
       </c>
       <c r="N9">
-        <v>0.9998060352584999</v>
+        <v>1.538276739045984</v>
       </c>
       <c r="O9">
-        <v>0.9980404477765221</v>
+        <v>1.227081551670949</v>
       </c>
       <c r="P9">
-        <v>0.9983929849480256</v>
+        <v>1.341995913043064</v>
       </c>
       <c r="Q9">
-        <v>0.9983929849480256</v>
+        <v>1.341995913043064</v>
       </c>
       <c r="R9">
-        <v>0.9976864597927885</v>
+        <v>1.243855500041605</v>
       </c>
       <c r="S9">
-        <v>0.9976864597927885</v>
+        <v>1.243855500041605</v>
       </c>
       <c r="T9">
-        <v>1.00317644251645</v>
+        <v>1.304514268219921</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9904385140229781</v>
+        <v>0.9342212966775602</v>
       </c>
       <c r="D10">
-        <v>0.988663940932492</v>
+        <v>0.5973166769888774</v>
       </c>
       <c r="E10">
-        <v>1.068853756559306</v>
+        <v>2.404798778003923</v>
       </c>
       <c r="F10">
-        <v>0.9987303631385309</v>
+        <v>0.8505280649972432</v>
       </c>
       <c r="G10">
-        <v>1.00788138248371</v>
+        <v>1.203749904664492</v>
       </c>
       <c r="H10">
-        <v>0.9888700872009636</v>
+        <v>1.866729064982216</v>
       </c>
       <c r="I10">
-        <v>0.9888700872009636</v>
+        <v>1.866729064982216</v>
       </c>
       <c r="J10">
-        <v>0.9904385140229781</v>
+        <v>0.9342212966775602</v>
       </c>
       <c r="K10">
-        <v>0.9904385140229781</v>
+        <v>0.9342212966775602</v>
       </c>
       <c r="L10">
-        <v>1.00788138248371</v>
+        <v>1.203749904664492</v>
       </c>
       <c r="M10">
-        <v>0.9983757348423365</v>
+        <v>1.535239484823354</v>
       </c>
       <c r="N10">
-        <v>0.9983757348423365</v>
+        <v>1.535239484823354</v>
       </c>
       <c r="O10">
-        <v>0.9951384702057217</v>
+        <v>1.222598548878528</v>
       </c>
       <c r="P10">
-        <v>0.9957299945692171</v>
+        <v>1.334900088774756</v>
       </c>
       <c r="Q10">
-        <v>0.9957299945692171</v>
+        <v>1.334900088774756</v>
       </c>
       <c r="R10">
-        <v>0.9944071244326573</v>
+        <v>1.234730390750457</v>
       </c>
       <c r="S10">
-        <v>0.9944071244326573</v>
+        <v>1.234730390750457</v>
       </c>
       <c r="T10">
-        <v>1.00723967405633</v>
+        <v>1.309557297719052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9846151822120509</v>
+        <v>1.07208757871697</v>
       </c>
       <c r="D11">
-        <v>0.9810491078817641</v>
+        <v>0.9590959079136088</v>
       </c>
       <c r="E11">
-        <v>1.102738078609217</v>
+        <v>0.9760682853842445</v>
       </c>
       <c r="F11">
-        <v>0.9985917648623746</v>
+        <v>1.022040010419586</v>
       </c>
       <c r="G11">
-        <v>1.019972469259182</v>
+        <v>1.018663275285784</v>
       </c>
       <c r="H11">
-        <v>0.9814178275291956</v>
+        <v>0.9531608841428471</v>
       </c>
       <c r="I11">
-        <v>0.9814178275291956</v>
+        <v>0.9531608841428471</v>
       </c>
       <c r="J11">
-        <v>0.9846151822120509</v>
+        <v>1.07208757871697</v>
       </c>
       <c r="K11">
-        <v>0.9846151822120509</v>
+        <v>1.07208757871697</v>
       </c>
       <c r="L11">
-        <v>1.019972469259182</v>
+        <v>1.018663275285784</v>
       </c>
       <c r="M11">
-        <v>1.000695148394189</v>
+        <v>0.9859120797143153</v>
       </c>
       <c r="N11">
-        <v>1.000695148394189</v>
+        <v>0.9859120797143153</v>
       </c>
       <c r="O11">
-        <v>0.9941464682233806</v>
+        <v>0.9769733557807464</v>
       </c>
       <c r="P11">
-        <v>0.9953351596668095</v>
+        <v>1.014637246048534</v>
       </c>
       <c r="Q11">
-        <v>0.9953351596668094</v>
+        <v>1.014637246048534</v>
       </c>
       <c r="R11">
-        <v>0.9926551653031198</v>
+        <v>1.028999829215643</v>
       </c>
       <c r="S11">
-        <v>0.9926551653031198</v>
+        <v>1.028999829215643</v>
       </c>
       <c r="T11">
-        <v>1.011397405058964</v>
+        <v>1.000185990310507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.532248593482896</v>
+        <v>1.035326509156268</v>
       </c>
       <c r="D12">
-        <v>1.23037663066407</v>
+        <v>0.9794944943241207</v>
       </c>
       <c r="E12">
-        <v>0.08048583594240753</v>
+        <v>0.9969526978167447</v>
       </c>
       <c r="F12">
-        <v>0.9583055281286248</v>
+        <v>1.008922545511094</v>
       </c>
       <c r="G12">
-        <v>0.6693754354963696</v>
+        <v>1.007851069287176</v>
       </c>
       <c r="H12">
-        <v>0.8486463242385629</v>
+        <v>0.985033575535449</v>
       </c>
       <c r="I12">
-        <v>0.8486463242385629</v>
+        <v>0.985033575535449</v>
       </c>
       <c r="J12">
-        <v>1.532248593482896</v>
+        <v>1.035326509156268</v>
       </c>
       <c r="K12">
-        <v>1.532248593482896</v>
+        <v>1.035326509156268</v>
       </c>
       <c r="L12">
-        <v>0.6693754354963696</v>
+        <v>1.007851069287176</v>
       </c>
       <c r="M12">
-        <v>0.7590108798674662</v>
+        <v>0.9964423224113128</v>
       </c>
       <c r="N12">
-        <v>0.7590108798674662</v>
+        <v>0.9964423224113128</v>
       </c>
       <c r="O12">
-        <v>0.9161327967996676</v>
+        <v>0.9907930463822487</v>
       </c>
       <c r="P12">
-        <v>1.016756784405943</v>
+        <v>1.009403717992965</v>
       </c>
       <c r="Q12">
-        <v>1.016756784405943</v>
+        <v>1.009403717992965</v>
       </c>
       <c r="R12">
-        <v>1.145629736675181</v>
+        <v>1.015884415783791</v>
       </c>
       <c r="S12">
-        <v>1.145629736675181</v>
+        <v>1.015884415783791</v>
       </c>
       <c r="T12">
-        <v>0.886573057992155</v>
+        <v>1.002263481938476</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7371114305529008</v>
+        <v>1.124190368645194</v>
       </c>
       <c r="D13">
-        <v>0.9647145813316587</v>
+        <v>0.9284672194285911</v>
       </c>
       <c r="E13">
-        <v>1.06999539874635</v>
+        <v>0.9866407314987731</v>
       </c>
       <c r="F13">
-        <v>0.9929795423844694</v>
+        <v>1.032235654223734</v>
       </c>
       <c r="G13">
-        <v>1.136844496389179</v>
+        <v>1.025650144732011</v>
       </c>
       <c r="H13">
-        <v>1.430707025136993</v>
+        <v>0.9496131423350378</v>
       </c>
       <c r="I13">
-        <v>1.430707025136993</v>
+        <v>0.9496131423350378</v>
       </c>
       <c r="J13">
-        <v>0.7371114305529008</v>
+        <v>1.124190368645194</v>
       </c>
       <c r="K13">
-        <v>0.7371114305529008</v>
+        <v>1.124190368645194</v>
       </c>
       <c r="L13">
-        <v>1.136844496389179</v>
+        <v>1.025650144732011</v>
       </c>
       <c r="M13">
-        <v>1.283775760763086</v>
+        <v>0.9876316435335246</v>
       </c>
       <c r="N13">
-        <v>1.283775760763086</v>
+        <v>0.9876316435335246</v>
       </c>
       <c r="O13">
-        <v>1.177422034285943</v>
+        <v>0.9679101688318802</v>
       </c>
       <c r="P13">
-        <v>1.101554317359691</v>
+        <v>1.033151218570748</v>
       </c>
       <c r="Q13">
-        <v>1.101554317359691</v>
+        <v>1.033151218570748</v>
       </c>
       <c r="R13">
-        <v>1.010443595657993</v>
+        <v>1.055911006089359</v>
       </c>
       <c r="S13">
-        <v>1.010443595657993</v>
+        <v>1.055911006089359</v>
       </c>
       <c r="T13">
-        <v>1.055392079090258</v>
+        <v>1.007799543477223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.594468388264348</v>
+        <v>1.199471437658117</v>
       </c>
       <c r="D14">
-        <v>1.297889783984052</v>
+        <v>0.8934112729509098</v>
       </c>
       <c r="E14">
-        <v>0.07012133643017217</v>
+        <v>0.9493355372478058</v>
       </c>
       <c r="F14">
-        <v>0.9452800615985772</v>
+        <v>1.048749772086051</v>
       </c>
       <c r="G14">
-        <v>0.6985944381668217</v>
+        <v>1.045837405146785</v>
       </c>
       <c r="H14">
-        <v>0.4790915275389506</v>
+        <v>0.8900722193616485</v>
       </c>
       <c r="I14">
-        <v>0.4790915275389506</v>
+        <v>0.8900722193616485</v>
       </c>
       <c r="J14">
-        <v>1.594468388264348</v>
+        <v>1.199471437658117</v>
       </c>
       <c r="K14">
-        <v>1.594468388264348</v>
+        <v>1.199471437658117</v>
       </c>
       <c r="L14">
-        <v>0.6985944381668217</v>
+        <v>1.045837405146785</v>
       </c>
       <c r="M14">
-        <v>0.5888429828528862</v>
+        <v>0.967954812254217</v>
       </c>
       <c r="N14">
-        <v>0.5888429828528862</v>
+        <v>0.967954812254217</v>
       </c>
       <c r="O14">
-        <v>0.8251919165632747</v>
+        <v>0.9431069658197813</v>
       </c>
       <c r="P14">
-        <v>0.9240514513233733</v>
+        <v>1.045127020722184</v>
       </c>
       <c r="Q14">
-        <v>0.9240514513233732</v>
+        <v>1.045127020722184</v>
       </c>
       <c r="R14">
-        <v>1.091655685558617</v>
+        <v>1.083713124956167</v>
       </c>
       <c r="S14">
-        <v>1.091655685558617</v>
+        <v>1.083713124956167</v>
       </c>
       <c r="T14">
-        <v>0.8475742559971534</v>
+        <v>1.004479607408553</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.795543926180049</v>
+        <v>1.074037199455971</v>
       </c>
       <c r="D15">
-        <v>0.8607575583148165</v>
+        <v>0.9603221048847134</v>
       </c>
       <c r="E15">
-        <v>0.9934406675015172</v>
+        <v>0.976136500073568</v>
       </c>
       <c r="F15">
-        <v>1.028542702048549</v>
+        <v>1.020426108589493</v>
       </c>
       <c r="G15">
-        <v>1.121593773365537</v>
+        <v>1.018538211488336</v>
       </c>
       <c r="H15">
-        <v>1.862951715151143</v>
+        <v>0.9617345325269678</v>
       </c>
       <c r="I15">
-        <v>1.862951715151143</v>
+        <v>0.9617345325269678</v>
       </c>
       <c r="J15">
-        <v>0.795543926180049</v>
+        <v>1.074037199455971</v>
       </c>
       <c r="K15">
-        <v>0.795543926180049</v>
+        <v>1.074037199455971</v>
       </c>
       <c r="L15">
-        <v>1.121593773365537</v>
+        <v>1.018538211488336</v>
       </c>
       <c r="M15">
-        <v>1.49227274425834</v>
+        <v>0.9901363720076519</v>
       </c>
       <c r="N15">
-        <v>1.49227274425834</v>
+        <v>0.9901363720076519</v>
       </c>
       <c r="O15">
-        <v>1.281767682277166</v>
+        <v>0.9801982829666724</v>
       </c>
       <c r="P15">
-        <v>1.26002980489891</v>
+        <v>1.018103314490425</v>
       </c>
       <c r="Q15">
-        <v>1.26002980489891</v>
+        <v>1.018103314490425</v>
       </c>
       <c r="R15">
-        <v>1.143908335219195</v>
+        <v>1.032086785731811</v>
       </c>
       <c r="S15">
-        <v>1.143908335219195</v>
+        <v>1.032086785731811</v>
       </c>
       <c r="T15">
-        <v>1.110471723760269</v>
+        <v>1.001865776169842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.261151865816045</v>
+        <v>1.138262121873935</v>
       </c>
       <c r="D16">
-        <v>0.2904617447838431</v>
+        <v>0.9238025583750485</v>
       </c>
       <c r="E16">
-        <v>0.6914148673797788</v>
+        <v>0.9632479662361587</v>
       </c>
       <c r="F16">
-        <v>1.379051168924194</v>
+        <v>1.039718999030634</v>
       </c>
       <c r="G16">
-        <v>1.295368925818448</v>
+        <v>1.03369411805726</v>
       </c>
       <c r="H16">
-        <v>0.1980947005038654</v>
+        <v>0.9231870290168694</v>
       </c>
       <c r="I16">
-        <v>0.1980947005038654</v>
+        <v>0.9231870290168694</v>
       </c>
       <c r="J16">
-        <v>2.261151865816045</v>
+        <v>1.138262121873935</v>
       </c>
       <c r="K16">
-        <v>2.261151865816045</v>
+        <v>1.138262121873935</v>
       </c>
       <c r="L16">
-        <v>1.295368925818448</v>
+        <v>1.03369411805726</v>
       </c>
       <c r="M16">
-        <v>0.7467318131611567</v>
+        <v>0.9784405735370647</v>
       </c>
       <c r="N16">
-        <v>0.7467318131611567</v>
+        <v>0.9784405735370647</v>
       </c>
       <c r="O16">
-        <v>0.5946417903687188</v>
+        <v>0.9602279018163927</v>
       </c>
       <c r="P16">
-        <v>1.251538497379453</v>
+        <v>1.031714422982688</v>
       </c>
       <c r="Q16">
-        <v>1.251538497379453</v>
+        <v>1.031714422982688</v>
       </c>
       <c r="R16">
-        <v>1.503941839488601</v>
+        <v>1.0583513477055</v>
       </c>
       <c r="S16">
-        <v>1.503941839488601</v>
+        <v>1.0583513477055</v>
       </c>
       <c r="T16">
-        <v>1.019257212204362</v>
+        <v>1.003652132098318</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.806510392057525</v>
+        <v>1.280337471370155</v>
       </c>
       <c r="D17">
-        <v>0.4664397746902031</v>
+        <v>0.8592386789300931</v>
       </c>
       <c r="E17">
-        <v>1.091421424889459</v>
+        <v>0.9420081747560778</v>
       </c>
       <c r="F17">
-        <v>1.254848115009914</v>
+        <v>1.081976927996348</v>
       </c>
       <c r="G17">
-        <v>1.222729963233155</v>
+        <v>1.068967937016586</v>
       </c>
       <c r="H17">
-        <v>0.3944222011070058</v>
+        <v>0.8587980905098616</v>
       </c>
       <c r="I17">
-        <v>0.3944222011070058</v>
+        <v>0.8587980905098616</v>
       </c>
       <c r="J17">
-        <v>1.806510392057525</v>
+        <v>1.280337471370155</v>
       </c>
       <c r="K17">
-        <v>1.806510392057525</v>
+        <v>1.280337471370155</v>
       </c>
       <c r="L17">
-        <v>1.222729963233155</v>
+        <v>1.068967937016586</v>
       </c>
       <c r="M17">
-        <v>0.8085760821700804</v>
+        <v>0.9638830137632239</v>
       </c>
       <c r="N17">
-        <v>0.8085760821700804</v>
+        <v>0.9638830137632239</v>
       </c>
       <c r="O17">
-        <v>0.6945306463434546</v>
+        <v>0.929001568818847</v>
       </c>
       <c r="P17">
-        <v>1.141220852132562</v>
+        <v>1.069367832965534</v>
       </c>
       <c r="Q17">
-        <v>1.141220852132562</v>
+        <v>1.069367832965534</v>
       </c>
       <c r="R17">
-        <v>1.307543237113802</v>
+        <v>1.122110242566689</v>
       </c>
       <c r="S17">
-        <v>1.307543237113802</v>
+        <v>1.122110242566689</v>
       </c>
       <c r="T17">
-        <v>1.03939531183121</v>
+        <v>1.015221213429853</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.901062084439317</v>
+        <v>1.507706636350246</v>
       </c>
       <c r="D18">
-        <v>0.8178636624786449</v>
+        <v>0.8154210776098136</v>
       </c>
       <c r="E18">
-        <v>1.875185471559175</v>
+        <v>0.8739737795248642</v>
       </c>
       <c r="F18">
-        <v>1.008545831452807</v>
+        <v>1.094929945247641</v>
       </c>
       <c r="G18">
-        <v>1.079878124238675</v>
+        <v>1.234296194710989</v>
       </c>
       <c r="H18">
-        <v>0.7863628291626191</v>
+        <v>0.7651491943234904</v>
       </c>
       <c r="I18">
-        <v>0.7863628291626191</v>
+        <v>0.7651491943234904</v>
       </c>
       <c r="J18">
-        <v>0.901062084439317</v>
+        <v>1.507706636350246</v>
       </c>
       <c r="K18">
-        <v>0.901062084439317</v>
+        <v>1.507706636350246</v>
       </c>
       <c r="L18">
-        <v>1.079878124238675</v>
+        <v>1.234296194710989</v>
       </c>
       <c r="M18">
-        <v>0.9331204767006469</v>
+        <v>0.9997226945172397</v>
       </c>
       <c r="N18">
-        <v>0.9331204767006469</v>
+        <v>0.9997226945172397</v>
       </c>
       <c r="O18">
-        <v>0.8947015386266463</v>
+        <v>0.9382888222147644</v>
       </c>
       <c r="P18">
-        <v>0.9224343459468702</v>
+        <v>1.169050675128242</v>
       </c>
       <c r="Q18">
-        <v>0.9224343459468702</v>
+        <v>1.169050675128242</v>
       </c>
       <c r="R18">
-        <v>0.9170912805699819</v>
+        <v>1.253714665433743</v>
       </c>
       <c r="S18">
-        <v>0.9170912805699819</v>
+        <v>1.253714665433743</v>
       </c>
       <c r="T18">
-        <v>1.078149667221873</v>
+        <v>1.048579471294508</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.847211852468517</v>
+        <v>0.9986919092084635</v>
       </c>
       <c r="D19">
-        <v>0.7890250786795331</v>
+        <v>0.998642706458115</v>
       </c>
       <c r="E19">
-        <v>2.157825201840654</v>
+        <v>1.010395249276663</v>
       </c>
       <c r="F19">
-        <v>0.9808210240298643</v>
+        <v>0.9996186332754168</v>
       </c>
       <c r="G19">
-        <v>1.057906549276304</v>
+        <v>1.00035758696541</v>
       </c>
       <c r="H19">
-        <v>0.9072597124732652</v>
+        <v>0.9987249096886645</v>
       </c>
       <c r="I19">
-        <v>0.9072597124732652</v>
+        <v>0.9987249096886645</v>
       </c>
       <c r="J19">
-        <v>0.847211852468517</v>
+        <v>0.9986919092084635</v>
       </c>
       <c r="K19">
-        <v>0.847211852468517</v>
+        <v>0.9986919092084635</v>
       </c>
       <c r="L19">
-        <v>1.057906549276304</v>
+        <v>1.00035758696541</v>
       </c>
       <c r="M19">
-        <v>0.9825831308747843</v>
+        <v>0.9995412483270372</v>
       </c>
       <c r="N19">
-        <v>0.9825831308747843</v>
+        <v>0.9995412483270372</v>
       </c>
       <c r="O19">
-        <v>0.9180637801430339</v>
+        <v>0.9992417343707297</v>
       </c>
       <c r="P19">
-        <v>0.9374593714060285</v>
+        <v>0.9992581352875126</v>
       </c>
       <c r="Q19">
-        <v>0.9374593714060286</v>
+        <v>0.9992581352875126</v>
       </c>
       <c r="R19">
-        <v>0.9148974916716508</v>
+        <v>0.9991165787677504</v>
       </c>
       <c r="S19">
-        <v>0.9148974916716508</v>
+        <v>0.9991165787677504</v>
       </c>
       <c r="T19">
-        <v>1.12334156979469</v>
+        <v>1.001071832478789</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.013301115291715</v>
+        <v>0.9967473163052357</v>
       </c>
       <c r="D20">
-        <v>1.00049987854744</v>
+        <v>0.9968286000931585</v>
       </c>
       <c r="E20">
-        <v>1.006695315098574</v>
+        <v>1.023971432419171</v>
       </c>
       <c r="F20">
-        <v>0.9955417811652437</v>
+        <v>0.9994091816498004</v>
       </c>
       <c r="G20">
-        <v>0.9931303881649857</v>
+        <v>1.002170472830231</v>
       </c>
       <c r="H20">
-        <v>1.001620835608678</v>
+        <v>0.9956516222334424</v>
       </c>
       <c r="I20">
-        <v>1.001620835608678</v>
+        <v>0.9956516222334424</v>
       </c>
       <c r="J20">
-        <v>1.013301115291715</v>
+        <v>0.9967473163052357</v>
       </c>
       <c r="K20">
-        <v>1.013301115291715</v>
+        <v>0.9967473163052357</v>
       </c>
       <c r="L20">
-        <v>0.9931303881649857</v>
+        <v>1.002170472830231</v>
       </c>
       <c r="M20">
-        <v>0.997375611886832</v>
+        <v>0.9989110475318369</v>
       </c>
       <c r="N20">
-        <v>0.997375611886832</v>
+        <v>0.9989110475318369</v>
       </c>
       <c r="O20">
-        <v>0.9984170341070348</v>
+        <v>0.9982168983856109</v>
       </c>
       <c r="P20">
-        <v>1.002684113021793</v>
+        <v>0.9981898037896365</v>
       </c>
       <c r="Q20">
-        <v>1.002684113021793</v>
+        <v>0.9981898037896365</v>
       </c>
       <c r="R20">
-        <v>1.005338363589273</v>
+        <v>0.9978291819185363</v>
       </c>
       <c r="S20">
-        <v>1.005338363589273</v>
+        <v>0.9978291819185363</v>
       </c>
       <c r="T20">
-        <v>1.001798218979439</v>
+        <v>1.002463104255173</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9741069651830061</v>
+        <v>0.9955668843270772</v>
       </c>
       <c r="D21">
-        <v>0.9970626854889972</v>
+        <v>0.9945092728125664</v>
       </c>
       <c r="E21">
-        <v>1.009861156254058</v>
+        <v>1.029499967381604</v>
       </c>
       <c r="F21">
-        <v>1.004663795704197</v>
+        <v>0.9998704600604559</v>
       </c>
       <c r="G21">
-        <v>1.007977303261985</v>
+        <v>1.004689531097651</v>
       </c>
       <c r="H21">
-        <v>1.002678603909377</v>
+        <v>0.9949225394193488</v>
       </c>
       <c r="I21">
-        <v>1.002678603909377</v>
+        <v>0.9949225394193488</v>
       </c>
       <c r="J21">
-        <v>0.9741069651830061</v>
+        <v>0.9955668843270772</v>
       </c>
       <c r="K21">
-        <v>0.9741069651830061</v>
+        <v>0.9955668843270772</v>
       </c>
       <c r="L21">
-        <v>1.007977303261985</v>
+        <v>1.004689531097651</v>
       </c>
       <c r="M21">
-        <v>1.005327953585681</v>
+        <v>0.9998060352584999</v>
       </c>
       <c r="N21">
-        <v>1.005327953585681</v>
+        <v>0.9998060352584999</v>
       </c>
       <c r="O21">
-        <v>1.00257286422012</v>
+        <v>0.9980404477765221</v>
       </c>
       <c r="P21">
-        <v>0.994920957451456</v>
+        <v>0.9983929849480256</v>
       </c>
       <c r="Q21">
-        <v>0.994920957451456</v>
+        <v>0.9983929849480256</v>
       </c>
       <c r="R21">
-        <v>0.9897174593843436</v>
+        <v>0.9976864597927885</v>
       </c>
       <c r="S21">
-        <v>0.9897174593843436</v>
+        <v>0.9976864597927885</v>
       </c>
       <c r="T21">
-        <v>0.9993917516336034</v>
+        <v>1.00317644251645</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.078963719046366</v>
+        <v>0.9904385140229781</v>
       </c>
       <c r="D22">
-        <v>0.9868364384981841</v>
+        <v>0.988663940932492</v>
       </c>
       <c r="E22">
-        <v>1.009978991006945</v>
+        <v>1.068853756559306</v>
       </c>
       <c r="F22">
-        <v>0.9858556528144227</v>
+        <v>0.9987303631385309</v>
       </c>
       <c r="G22">
-        <v>0.9951814378705848</v>
+        <v>1.00788138248371</v>
       </c>
       <c r="H22">
-        <v>0.9842957564461347</v>
+        <v>0.9888700872009636</v>
       </c>
       <c r="I22">
-        <v>0.9842957564461347</v>
+        <v>0.9888700872009636</v>
       </c>
       <c r="J22">
-        <v>1.078963719046366</v>
+        <v>0.9904385140229781</v>
       </c>
       <c r="K22">
-        <v>1.078963719046366</v>
+        <v>0.9904385140229781</v>
       </c>
       <c r="L22">
-        <v>0.9951814378705848</v>
+        <v>1.00788138248371</v>
       </c>
       <c r="M22">
-        <v>0.9897385971583597</v>
+        <v>0.9983757348423365</v>
       </c>
       <c r="N22">
-        <v>0.9897385971583597</v>
+        <v>0.9983757348423365</v>
       </c>
       <c r="O22">
-        <v>0.9887712109383012</v>
+        <v>0.9951384702057217</v>
       </c>
       <c r="P22">
-        <v>1.019480304454362</v>
+        <v>0.9957299945692171</v>
       </c>
       <c r="Q22">
-        <v>1.019480304454362</v>
+        <v>0.9957299945692171</v>
       </c>
       <c r="R22">
-        <v>1.034351158102363</v>
+        <v>0.9944071244326573</v>
       </c>
       <c r="S22">
-        <v>1.034351158102363</v>
+        <v>0.9944071244326573</v>
       </c>
       <c r="T22">
-        <v>1.00685199928044</v>
+        <v>1.00723967405633</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9846151822120509</v>
+      </c>
+      <c r="D23">
+        <v>0.9810491078817641</v>
+      </c>
+      <c r="E23">
+        <v>1.102738078609217</v>
+      </c>
+      <c r="F23">
+        <v>0.9985917648623746</v>
+      </c>
+      <c r="G23">
+        <v>1.019972469259182</v>
+      </c>
+      <c r="H23">
+        <v>0.9814178275291956</v>
+      </c>
+      <c r="I23">
+        <v>0.9814178275291956</v>
+      </c>
+      <c r="J23">
+        <v>0.9846151822120509</v>
+      </c>
+      <c r="K23">
+        <v>0.9846151822120509</v>
+      </c>
+      <c r="L23">
+        <v>1.019972469259182</v>
+      </c>
+      <c r="M23">
+        <v>1.000695148394189</v>
+      </c>
+      <c r="N23">
+        <v>1.000695148394189</v>
+      </c>
+      <c r="O23">
+        <v>0.9941464682233806</v>
+      </c>
+      <c r="P23">
+        <v>0.9953351596668095</v>
+      </c>
+      <c r="Q23">
+        <v>0.9953351596668094</v>
+      </c>
+      <c r="R23">
+        <v>0.9926551653031198</v>
+      </c>
+      <c r="S23">
+        <v>0.9926551653031198</v>
+      </c>
+      <c r="T23">
+        <v>1.011397405058964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.532248593482896</v>
+      </c>
+      <c r="D24">
+        <v>1.23037663066407</v>
+      </c>
+      <c r="E24">
+        <v>0.08048583594240753</v>
+      </c>
+      <c r="F24">
+        <v>0.9583055281286248</v>
+      </c>
+      <c r="G24">
+        <v>0.6693754354963696</v>
+      </c>
+      <c r="H24">
+        <v>0.8486463242385629</v>
+      </c>
+      <c r="I24">
+        <v>0.8486463242385629</v>
+      </c>
+      <c r="J24">
+        <v>1.532248593482896</v>
+      </c>
+      <c r="K24">
+        <v>1.532248593482896</v>
+      </c>
+      <c r="L24">
+        <v>0.6693754354963696</v>
+      </c>
+      <c r="M24">
+        <v>0.7590108798674662</v>
+      </c>
+      <c r="N24">
+        <v>0.7590108798674662</v>
+      </c>
+      <c r="O24">
+        <v>0.9161327967996676</v>
+      </c>
+      <c r="P24">
+        <v>1.016756784405943</v>
+      </c>
+      <c r="Q24">
+        <v>1.016756784405943</v>
+      </c>
+      <c r="R24">
+        <v>1.145629736675181</v>
+      </c>
+      <c r="S24">
+        <v>1.145629736675181</v>
+      </c>
+      <c r="T24">
+        <v>0.886573057992155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7371114305529008</v>
+      </c>
+      <c r="D25">
+        <v>0.9647145813316587</v>
+      </c>
+      <c r="E25">
+        <v>1.06999539874635</v>
+      </c>
+      <c r="F25">
+        <v>0.9929795423844694</v>
+      </c>
+      <c r="G25">
+        <v>1.136844496389179</v>
+      </c>
+      <c r="H25">
+        <v>1.430707025136993</v>
+      </c>
+      <c r="I25">
+        <v>1.430707025136993</v>
+      </c>
+      <c r="J25">
+        <v>0.7371114305529008</v>
+      </c>
+      <c r="K25">
+        <v>0.7371114305529008</v>
+      </c>
+      <c r="L25">
+        <v>1.136844496389179</v>
+      </c>
+      <c r="M25">
+        <v>1.283775760763086</v>
+      </c>
+      <c r="N25">
+        <v>1.283775760763086</v>
+      </c>
+      <c r="O25">
+        <v>1.177422034285943</v>
+      </c>
+      <c r="P25">
+        <v>1.101554317359691</v>
+      </c>
+      <c r="Q25">
+        <v>1.101554317359691</v>
+      </c>
+      <c r="R25">
+        <v>1.010443595657993</v>
+      </c>
+      <c r="S25">
+        <v>1.010443595657993</v>
+      </c>
+      <c r="T25">
+        <v>1.055392079090258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.594468388264348</v>
+      </c>
+      <c r="D26">
+        <v>1.297889783984052</v>
+      </c>
+      <c r="E26">
+        <v>0.07012133643017217</v>
+      </c>
+      <c r="F26">
+        <v>0.9452800615985772</v>
+      </c>
+      <c r="G26">
+        <v>0.6985944381668217</v>
+      </c>
+      <c r="H26">
+        <v>0.4790915275389506</v>
+      </c>
+      <c r="I26">
+        <v>0.4790915275389506</v>
+      </c>
+      <c r="J26">
+        <v>1.594468388264348</v>
+      </c>
+      <c r="K26">
+        <v>1.594468388264348</v>
+      </c>
+      <c r="L26">
+        <v>0.6985944381668217</v>
+      </c>
+      <c r="M26">
+        <v>0.5888429828528862</v>
+      </c>
+      <c r="N26">
+        <v>0.5888429828528862</v>
+      </c>
+      <c r="O26">
+        <v>0.8251919165632747</v>
+      </c>
+      <c r="P26">
+        <v>0.9240514513233733</v>
+      </c>
+      <c r="Q26">
+        <v>0.9240514513233732</v>
+      </c>
+      <c r="R26">
+        <v>1.091655685558617</v>
+      </c>
+      <c r="S26">
+        <v>1.091655685558617</v>
+      </c>
+      <c r="T26">
+        <v>0.8475742559971534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.795543926180049</v>
+      </c>
+      <c r="D27">
+        <v>0.8607575583148165</v>
+      </c>
+      <c r="E27">
+        <v>0.9934406675015172</v>
+      </c>
+      <c r="F27">
+        <v>1.028542702048549</v>
+      </c>
+      <c r="G27">
+        <v>1.121593773365537</v>
+      </c>
+      <c r="H27">
+        <v>1.862951715151143</v>
+      </c>
+      <c r="I27">
+        <v>1.862951715151143</v>
+      </c>
+      <c r="J27">
+        <v>0.795543926180049</v>
+      </c>
+      <c r="K27">
+        <v>0.795543926180049</v>
+      </c>
+      <c r="L27">
+        <v>1.121593773365537</v>
+      </c>
+      <c r="M27">
+        <v>1.49227274425834</v>
+      </c>
+      <c r="N27">
+        <v>1.49227274425834</v>
+      </c>
+      <c r="O27">
+        <v>1.281767682277166</v>
+      </c>
+      <c r="P27">
+        <v>1.26002980489891</v>
+      </c>
+      <c r="Q27">
+        <v>1.26002980489891</v>
+      </c>
+      <c r="R27">
+        <v>1.143908335219195</v>
+      </c>
+      <c r="S27">
+        <v>1.143908335219195</v>
+      </c>
+      <c r="T27">
+        <v>1.110471723760269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.261151865816045</v>
+      </c>
+      <c r="D28">
+        <v>0.2904617447838431</v>
+      </c>
+      <c r="E28">
+        <v>0.6914148673797788</v>
+      </c>
+      <c r="F28">
+        <v>1.379051168924194</v>
+      </c>
+      <c r="G28">
+        <v>1.295368925818448</v>
+      </c>
+      <c r="H28">
+        <v>0.1980947005038654</v>
+      </c>
+      <c r="I28">
+        <v>0.1980947005038654</v>
+      </c>
+      <c r="J28">
+        <v>2.261151865816045</v>
+      </c>
+      <c r="K28">
+        <v>2.261151865816045</v>
+      </c>
+      <c r="L28">
+        <v>1.295368925818448</v>
+      </c>
+      <c r="M28">
+        <v>0.7467318131611567</v>
+      </c>
+      <c r="N28">
+        <v>0.7467318131611567</v>
+      </c>
+      <c r="O28">
+        <v>0.5946417903687188</v>
+      </c>
+      <c r="P28">
+        <v>1.251538497379453</v>
+      </c>
+      <c r="Q28">
+        <v>1.251538497379453</v>
+      </c>
+      <c r="R28">
+        <v>1.503941839488601</v>
+      </c>
+      <c r="S28">
+        <v>1.503941839488601</v>
+      </c>
+      <c r="T28">
+        <v>1.019257212204362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.806510392057525</v>
+      </c>
+      <c r="D29">
+        <v>0.4664397746902031</v>
+      </c>
+      <c r="E29">
+        <v>1.091421424889459</v>
+      </c>
+      <c r="F29">
+        <v>1.254848115009914</v>
+      </c>
+      <c r="G29">
+        <v>1.222729963233155</v>
+      </c>
+      <c r="H29">
+        <v>0.3944222011070058</v>
+      </c>
+      <c r="I29">
+        <v>0.3944222011070058</v>
+      </c>
+      <c r="J29">
+        <v>1.806510392057525</v>
+      </c>
+      <c r="K29">
+        <v>1.806510392057525</v>
+      </c>
+      <c r="L29">
+        <v>1.222729963233155</v>
+      </c>
+      <c r="M29">
+        <v>0.8085760821700804</v>
+      </c>
+      <c r="N29">
+        <v>0.8085760821700804</v>
+      </c>
+      <c r="O29">
+        <v>0.6945306463434546</v>
+      </c>
+      <c r="P29">
+        <v>1.141220852132562</v>
+      </c>
+      <c r="Q29">
+        <v>1.141220852132562</v>
+      </c>
+      <c r="R29">
+        <v>1.307543237113802</v>
+      </c>
+      <c r="S29">
+        <v>1.307543237113802</v>
+      </c>
+      <c r="T29">
+        <v>1.03939531183121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.901062084439317</v>
+      </c>
+      <c r="D30">
+        <v>0.8178636624786449</v>
+      </c>
+      <c r="E30">
+        <v>1.875185471559175</v>
+      </c>
+      <c r="F30">
+        <v>1.008545831452807</v>
+      </c>
+      <c r="G30">
+        <v>1.079878124238675</v>
+      </c>
+      <c r="H30">
+        <v>0.7863628291626191</v>
+      </c>
+      <c r="I30">
+        <v>0.7863628291626191</v>
+      </c>
+      <c r="J30">
+        <v>0.901062084439317</v>
+      </c>
+      <c r="K30">
+        <v>0.901062084439317</v>
+      </c>
+      <c r="L30">
+        <v>1.079878124238675</v>
+      </c>
+      <c r="M30">
+        <v>0.9331204767006469</v>
+      </c>
+      <c r="N30">
+        <v>0.9331204767006469</v>
+      </c>
+      <c r="O30">
+        <v>0.8947015386266463</v>
+      </c>
+      <c r="P30">
+        <v>0.9224343459468702</v>
+      </c>
+      <c r="Q30">
+        <v>0.9224343459468702</v>
+      </c>
+      <c r="R30">
+        <v>0.9170912805699819</v>
+      </c>
+      <c r="S30">
+        <v>0.9170912805699819</v>
+      </c>
+      <c r="T30">
+        <v>1.078149667221873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.847211852468517</v>
+      </c>
+      <c r="D31">
+        <v>0.7890250786795331</v>
+      </c>
+      <c r="E31">
+        <v>2.157825201840654</v>
+      </c>
+      <c r="F31">
+        <v>0.9808210240298643</v>
+      </c>
+      <c r="G31">
+        <v>1.057906549276304</v>
+      </c>
+      <c r="H31">
+        <v>0.9072597124732652</v>
+      </c>
+      <c r="I31">
+        <v>0.9072597124732652</v>
+      </c>
+      <c r="J31">
+        <v>0.847211852468517</v>
+      </c>
+      <c r="K31">
+        <v>0.847211852468517</v>
+      </c>
+      <c r="L31">
+        <v>1.057906549276304</v>
+      </c>
+      <c r="M31">
+        <v>0.9825831308747843</v>
+      </c>
+      <c r="N31">
+        <v>0.9825831308747843</v>
+      </c>
+      <c r="O31">
+        <v>0.9180637801430339</v>
+      </c>
+      <c r="P31">
+        <v>0.9374593714060285</v>
+      </c>
+      <c r="Q31">
+        <v>0.9374593714060286</v>
+      </c>
+      <c r="R31">
+        <v>0.9148974916716508</v>
+      </c>
+      <c r="S31">
+        <v>0.9148974916716508</v>
+      </c>
+      <c r="T31">
+        <v>1.12334156979469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>2.67793789109589</v>
+      </c>
+      <c r="D32">
+        <v>0.113632372</v>
+      </c>
+      <c r="E32">
+        <v>0.304298500389041</v>
+      </c>
+      <c r="F32">
+        <v>1.505498774520548</v>
+      </c>
+      <c r="G32">
+        <v>1.402062693835617</v>
+      </c>
+      <c r="H32">
+        <v>0.001350872246849315</v>
+      </c>
+      <c r="I32">
+        <v>0.001350872246849315</v>
+      </c>
+      <c r="J32">
+        <v>2.67793789109589</v>
+      </c>
+      <c r="K32">
+        <v>2.67793789109589</v>
+      </c>
+      <c r="L32">
+        <v>1.402062693835617</v>
+      </c>
+      <c r="M32">
+        <v>0.7017067830412331</v>
+      </c>
+      <c r="N32">
+        <v>0.7017067830412331</v>
+      </c>
+      <c r="O32">
+        <v>0.5056819793608222</v>
+      </c>
+      <c r="P32">
+        <v>1.360450485726119</v>
+      </c>
+      <c r="Q32">
+        <v>1.360450485726119</v>
+      </c>
+      <c r="R32">
+        <v>1.689822337068561</v>
+      </c>
+      <c r="S32">
+        <v>1.689822337068561</v>
+      </c>
+      <c r="T32">
+        <v>1.000796850681324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.304722441552632</v>
+      </c>
+      <c r="D33">
+        <v>0.7720825663379474</v>
+      </c>
+      <c r="E33">
+        <v>1.59856441045579</v>
+      </c>
+      <c r="F33">
+        <v>1.028342450526316</v>
+      </c>
+      <c r="G33">
+        <v>0.9647919070000001</v>
+      </c>
+      <c r="H33">
+        <v>0.06081105158842105</v>
+      </c>
+      <c r="I33">
+        <v>0.06081105158842105</v>
+      </c>
+      <c r="J33">
+        <v>1.304722441552632</v>
+      </c>
+      <c r="K33">
+        <v>1.304722441552632</v>
+      </c>
+      <c r="L33">
+        <v>0.9647919070000001</v>
+      </c>
+      <c r="M33">
+        <v>0.5128014792942106</v>
+      </c>
+      <c r="N33">
+        <v>0.5128014792942106</v>
+      </c>
+      <c r="O33">
+        <v>0.5992285083087895</v>
+      </c>
+      <c r="P33">
+        <v>0.776775133380351</v>
+      </c>
+      <c r="Q33">
+        <v>0.776775133380351</v>
+      </c>
+      <c r="R33">
+        <v>0.9087619604234212</v>
+      </c>
+      <c r="S33">
+        <v>0.9087619604234212</v>
+      </c>
+      <c r="T33">
+        <v>0.954885804576851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.865244737331579</v>
+      </c>
+      <c r="D34">
+        <v>0.5502721510661578</v>
+      </c>
+      <c r="E34">
+        <v>2.895645022052633</v>
+      </c>
+      <c r="F34">
+        <v>0.839499502105263</v>
+      </c>
+      <c r="G34">
+        <v>1.225597821052632</v>
+      </c>
+      <c r="H34">
+        <v>1.71504124877579</v>
+      </c>
+      <c r="I34">
+        <v>1.71504124877579</v>
+      </c>
+      <c r="J34">
+        <v>0.865244737331579</v>
+      </c>
+      <c r="K34">
+        <v>0.865244737331579</v>
+      </c>
+      <c r="L34">
+        <v>1.225597821052632</v>
+      </c>
+      <c r="M34">
+        <v>1.470319534914211</v>
+      </c>
+      <c r="N34">
+        <v>1.470319534914211</v>
+      </c>
+      <c r="O34">
+        <v>1.163637073631526</v>
+      </c>
+      <c r="P34">
+        <v>1.26862793572</v>
+      </c>
+      <c r="Q34">
+        <v>1.26862793572</v>
+      </c>
+      <c r="R34">
+        <v>1.167782136122895</v>
+      </c>
+      <c r="S34">
+        <v>1.167782136122895</v>
+      </c>
+      <c r="T34">
+        <v>1.348550080397342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4507134068353166</v>
+      </c>
+      <c r="D35">
+        <v>0.4104655034202561</v>
+      </c>
+      <c r="E35">
+        <v>6.67407859924857</v>
+      </c>
+      <c r="F35">
+        <v>0.6890219955869432</v>
+      </c>
+      <c r="G35">
+        <v>0.9499523326324143</v>
+      </c>
+      <c r="H35">
+        <v>0.3947500486138877</v>
+      </c>
+      <c r="I35">
+        <v>0.3947500486138877</v>
+      </c>
+      <c r="J35">
+        <v>0.4507134068353166</v>
+      </c>
+      <c r="K35">
+        <v>0.4507134068353166</v>
+      </c>
+      <c r="L35">
+        <v>0.9499523326324143</v>
+      </c>
+      <c r="M35">
+        <v>0.672351190623151</v>
+      </c>
+      <c r="N35">
+        <v>0.672351190623151</v>
+      </c>
+      <c r="O35">
+        <v>0.5850559615555193</v>
+      </c>
+      <c r="P35">
+        <v>0.5984719293605395</v>
+      </c>
+      <c r="Q35">
+        <v>0.5984719293605396</v>
+      </c>
+      <c r="R35">
+        <v>0.5615322987292338</v>
+      </c>
+      <c r="S35">
+        <v>0.5615322987292338</v>
+      </c>
+      <c r="T35">
+        <v>1.594830314389565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.013301115291715</v>
+      </c>
+      <c r="D36">
+        <v>1.00049987854744</v>
+      </c>
+      <c r="E36">
+        <v>1.006695315098574</v>
+      </c>
+      <c r="F36">
+        <v>0.9955417811652437</v>
+      </c>
+      <c r="G36">
+        <v>0.9931303881649857</v>
+      </c>
+      <c r="H36">
+        <v>1.001620835608678</v>
+      </c>
+      <c r="I36">
+        <v>1.001620835608678</v>
+      </c>
+      <c r="J36">
+        <v>1.013301115291715</v>
+      </c>
+      <c r="K36">
+        <v>1.013301115291715</v>
+      </c>
+      <c r="L36">
+        <v>0.9931303881649857</v>
+      </c>
+      <c r="M36">
+        <v>0.997375611886832</v>
+      </c>
+      <c r="N36">
+        <v>0.997375611886832</v>
+      </c>
+      <c r="O36">
+        <v>0.9984170341070348</v>
+      </c>
+      <c r="P36">
+        <v>1.002684113021793</v>
+      </c>
+      <c r="Q36">
+        <v>1.002684113021793</v>
+      </c>
+      <c r="R36">
+        <v>1.005338363589273</v>
+      </c>
+      <c r="S36">
+        <v>1.005338363589273</v>
+      </c>
+      <c r="T36">
+        <v>1.001798218979439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9741069651830061</v>
+      </c>
+      <c r="D37">
+        <v>0.9970626854889972</v>
+      </c>
+      <c r="E37">
+        <v>1.009861156254058</v>
+      </c>
+      <c r="F37">
+        <v>1.004663795704197</v>
+      </c>
+      <c r="G37">
+        <v>1.007977303261985</v>
+      </c>
+      <c r="H37">
+        <v>1.002678603909377</v>
+      </c>
+      <c r="I37">
+        <v>1.002678603909377</v>
+      </c>
+      <c r="J37">
+        <v>0.9741069651830061</v>
+      </c>
+      <c r="K37">
+        <v>0.9741069651830061</v>
+      </c>
+      <c r="L37">
+        <v>1.007977303261985</v>
+      </c>
+      <c r="M37">
+        <v>1.005327953585681</v>
+      </c>
+      <c r="N37">
+        <v>1.005327953585681</v>
+      </c>
+      <c r="O37">
+        <v>1.00257286422012</v>
+      </c>
+      <c r="P37">
+        <v>0.994920957451456</v>
+      </c>
+      <c r="Q37">
+        <v>0.994920957451456</v>
+      </c>
+      <c r="R37">
+        <v>0.9897174593843436</v>
+      </c>
+      <c r="S37">
+        <v>0.9897174593843436</v>
+      </c>
+      <c r="T37">
+        <v>0.9993917516336034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.078963719046366</v>
+      </c>
+      <c r="D38">
+        <v>0.9868364384981841</v>
+      </c>
+      <c r="E38">
+        <v>1.009978991006945</v>
+      </c>
+      <c r="F38">
+        <v>0.9858556528144227</v>
+      </c>
+      <c r="G38">
+        <v>0.9951814378705848</v>
+      </c>
+      <c r="H38">
+        <v>0.9842957564461347</v>
+      </c>
+      <c r="I38">
+        <v>0.9842957564461347</v>
+      </c>
+      <c r="J38">
+        <v>1.078963719046366</v>
+      </c>
+      <c r="K38">
+        <v>1.078963719046366</v>
+      </c>
+      <c r="L38">
+        <v>0.9951814378705848</v>
+      </c>
+      <c r="M38">
+        <v>0.9897385971583597</v>
+      </c>
+      <c r="N38">
+        <v>0.9897385971583597</v>
+      </c>
+      <c r="O38">
+        <v>0.9887712109383012</v>
+      </c>
+      <c r="P38">
+        <v>1.019480304454362</v>
+      </c>
+      <c r="Q38">
+        <v>1.019480304454362</v>
+      </c>
+      <c r="R38">
+        <v>1.034351158102363</v>
+      </c>
+      <c r="S38">
+        <v>1.034351158102363</v>
+      </c>
+      <c r="T38">
+        <v>1.00685199928044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.253299201028837</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9728581893823705</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9770852426213185</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9728297900206276</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.92597314068929</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9734811062813215</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9734811062813215</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.253299201028837</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.253299201028837</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.92597314068929</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9497271234853057</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9497271234853057</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9574374787843274</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.050917815999816</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.050917815999816</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.101513162257071</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.101513162257071</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.012587778337294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.428569115157098</v>
+      </c>
+      <c r="D40">
+        <v>0.8916967079992684</v>
+      </c>
+      <c r="E40">
+        <v>0.9147454956322359</v>
+      </c>
+      <c r="F40">
+        <v>1.013997726805723</v>
+      </c>
+      <c r="G40">
+        <v>0.9205967416479457</v>
+      </c>
+      <c r="H40">
+        <v>0.8134542702340917</v>
+      </c>
+      <c r="I40">
+        <v>0.8134542702340917</v>
+      </c>
+      <c r="J40">
+        <v>1.428569115157098</v>
+      </c>
+      <c r="K40">
+        <v>1.428569115157098</v>
+      </c>
+      <c r="L40">
+        <v>0.9205967416479457</v>
+      </c>
+      <c r="M40">
+        <v>0.8670255059410187</v>
+      </c>
+      <c r="N40">
+        <v>0.8670255059410187</v>
+      </c>
+      <c r="O40">
+        <v>0.8752492399604352</v>
+      </c>
+      <c r="P40">
+        <v>1.054206709013045</v>
+      </c>
+      <c r="Q40">
+        <v>1.054206709013045</v>
+      </c>
+      <c r="R40">
+        <v>1.147797310549058</v>
+      </c>
+      <c r="S40">
+        <v>1.147797310549058</v>
+      </c>
+      <c r="T40">
+        <v>0.9971766762460604</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9341816010831421</v>
+      </c>
+      <c r="D41">
+        <v>1.065991555488632</v>
+      </c>
+      <c r="E41">
+        <v>1.051053481775288</v>
+      </c>
+      <c r="F41">
+        <v>0.9559704730409723</v>
+      </c>
+      <c r="G41">
+        <v>0.9507030243086754</v>
+      </c>
+      <c r="H41">
+        <v>1.18121646057881</v>
+      </c>
+      <c r="I41">
+        <v>1.18121646057881</v>
+      </c>
+      <c r="J41">
+        <v>0.9341816010831421</v>
+      </c>
+      <c r="K41">
+        <v>0.9341816010831421</v>
+      </c>
+      <c r="L41">
+        <v>0.9507030243086754</v>
+      </c>
+      <c r="M41">
+        <v>1.065959742443742</v>
+      </c>
+      <c r="N41">
+        <v>1.065959742443742</v>
+      </c>
+      <c r="O41">
+        <v>1.065970346792039</v>
+      </c>
+      <c r="P41">
+        <v>1.022033695323542</v>
+      </c>
+      <c r="Q41">
+        <v>1.022033695323542</v>
+      </c>
+      <c r="R41">
+        <v>1.000070671763442</v>
+      </c>
+      <c r="S41">
+        <v>1.000070671763442</v>
+      </c>
+      <c r="T41">
+        <v>1.023186099379253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.51953831781148</v>
+      </c>
+      <c r="D42">
+        <v>0.6434370912783051</v>
+      </c>
+      <c r="E42">
+        <v>1.106782634552974</v>
+      </c>
+      <c r="F42">
+        <v>1.152362566638231</v>
+      </c>
+      <c r="G42">
+        <v>1.069824905980116</v>
+      </c>
+      <c r="H42">
+        <v>0.3122645786715571</v>
+      </c>
+      <c r="I42">
+        <v>0.3122645786715571</v>
+      </c>
+      <c r="J42">
+        <v>1.51953831781148</v>
+      </c>
+      <c r="K42">
+        <v>1.51953831781148</v>
+      </c>
+      <c r="L42">
+        <v>1.069824905980116</v>
+      </c>
+      <c r="M42">
+        <v>0.6910447423258368</v>
+      </c>
+      <c r="N42">
+        <v>0.6910447423258368</v>
+      </c>
+      <c r="O42">
+        <v>0.6751755253099928</v>
+      </c>
+      <c r="P42">
+        <v>0.9672092674877177</v>
+      </c>
+      <c r="Q42">
+        <v>0.9672092674877177</v>
+      </c>
+      <c r="R42">
+        <v>1.105291530068658</v>
+      </c>
+      <c r="S42">
+        <v>1.105291530068658</v>
+      </c>
+      <c r="T42">
+        <v>0.9673683491554438</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.074037199455971</v>
+        <v>0.9967473163052357</v>
       </c>
       <c r="D3">
-        <v>0.9617345325269678</v>
+        <v>0.9968286000931585</v>
       </c>
       <c r="E3">
-        <v>1.018538211488336</v>
+        <v>1.023971432419171</v>
       </c>
       <c r="F3">
-        <v>1.074037199455971</v>
+        <v>0.9994091816498004</v>
       </c>
       <c r="G3">
-        <v>0.976136500073568</v>
+        <v>1.002170472830231</v>
       </c>
       <c r="H3">
-        <v>0.9603221048847133</v>
+        <v>0.9956516222334424</v>
       </c>
       <c r="I3">
-        <v>1.020426108589493</v>
+        <v>0.9956516222334424</v>
       </c>
       <c r="J3">
-        <v>0.9617345325269678</v>
+        <v>0.9967473163052357</v>
       </c>
       <c r="K3">
-        <v>1.074037199455971</v>
+        <v>0.9967473163052357</v>
       </c>
       <c r="L3">
-        <v>1.018538211488336</v>
+        <v>1.002170472830231</v>
       </c>
       <c r="M3">
-        <v>0.9901363720076519</v>
+        <v>0.9989110475318369</v>
       </c>
       <c r="N3">
-        <v>0.9901363720076519</v>
+        <v>0.9989110475318369</v>
       </c>
       <c r="O3">
-        <v>0.9801982829666723</v>
+        <v>0.9982168983856109</v>
       </c>
       <c r="P3">
-        <v>1.018103314490425</v>
+        <v>0.9981898037896365</v>
       </c>
       <c r="Q3">
-        <v>1.018103314490425</v>
+        <v>0.9981898037896365</v>
       </c>
       <c r="R3">
-        <v>1.032086785731811</v>
+        <v>0.9978291819185363</v>
       </c>
       <c r="S3">
-        <v>1.032086785731811</v>
+        <v>0.9978291819185363</v>
       </c>
       <c r="T3">
-        <v>1.001865776169842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.002463104255173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.138262121873935</v>
+        <v>1.428569115157098</v>
       </c>
       <c r="D4">
-        <v>0.9231870290168693</v>
+        <v>0.8916967079992684</v>
       </c>
       <c r="E4">
-        <v>1.03369411805726</v>
+        <v>0.9147454956322359</v>
       </c>
       <c r="F4">
-        <v>1.138262121873935</v>
+        <v>1.013997726805723</v>
       </c>
       <c r="G4">
-        <v>0.963247966236159</v>
+        <v>0.9205967416479457</v>
       </c>
       <c r="H4">
-        <v>0.9238025583750485</v>
+        <v>0.8134542702340917</v>
       </c>
       <c r="I4">
-        <v>1.039718999030634</v>
+        <v>0.8134542702340917</v>
       </c>
       <c r="J4">
-        <v>0.9231870290168693</v>
+        <v>1.428569115157098</v>
       </c>
       <c r="K4">
-        <v>1.138262121873935</v>
+        <v>1.428569115157098</v>
       </c>
       <c r="L4">
-        <v>1.03369411805726</v>
+        <v>0.9205967416479457</v>
       </c>
       <c r="M4">
-        <v>0.9784405735370647</v>
+        <v>0.8670255059410187</v>
       </c>
       <c r="N4">
-        <v>0.9784405735370647</v>
+        <v>0.8670255059410187</v>
       </c>
       <c r="O4">
-        <v>0.9602279018163927</v>
+        <v>0.8752492399604352</v>
       </c>
       <c r="P4">
-        <v>1.031714422982688</v>
+        <v>1.054206709013045</v>
       </c>
       <c r="Q4">
-        <v>1.031714422982688</v>
+        <v>1.054206709013045</v>
       </c>
       <c r="R4">
-        <v>1.0583513477055</v>
+        <v>1.147797310549058</v>
       </c>
       <c r="S4">
-        <v>1.0583513477055</v>
+        <v>1.147797310549058</v>
       </c>
       <c r="T4">
-        <v>1.003652132098318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9971766762460604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.280337471370155</v>
+        <v>0.9173150968069193</v>
       </c>
       <c r="D5">
-        <v>0.8587980905098617</v>
+        <v>0.779800768717995</v>
       </c>
       <c r="E5">
-        <v>1.068967937016586</v>
+        <v>2.099596649151557</v>
       </c>
       <c r="F5">
-        <v>1.280337471370155</v>
+        <v>0.9995864793659984</v>
       </c>
       <c r="G5">
-        <v>0.9420081747560778</v>
+        <v>1.077555948217582</v>
       </c>
       <c r="H5">
-        <v>0.8592386789300931</v>
+        <v>0.7637850706686896</v>
       </c>
       <c r="I5">
-        <v>1.081976927996348</v>
+        <v>0.7637850706686896</v>
       </c>
       <c r="J5">
-        <v>0.8587980905098617</v>
+        <v>0.9173150968069193</v>
       </c>
       <c r="K5">
-        <v>1.280337471370155</v>
+        <v>0.9173150968069193</v>
       </c>
       <c r="L5">
-        <v>1.068967937016586</v>
+        <v>1.077555948217582</v>
       </c>
       <c r="M5">
-        <v>0.9638830137632239</v>
+        <v>0.9206705094431358</v>
       </c>
       <c r="N5">
-        <v>0.9638830137632239</v>
+        <v>0.9206705094431358</v>
       </c>
       <c r="O5">
-        <v>0.929001568818847</v>
+        <v>0.8737139292014221</v>
       </c>
       <c r="P5">
-        <v>1.069367832965534</v>
+        <v>0.9195520385643969</v>
       </c>
       <c r="Q5">
-        <v>1.069367832965534</v>
+        <v>0.9195520385643968</v>
       </c>
       <c r="R5">
-        <v>1.122110242566689</v>
+        <v>0.9189928031250274</v>
       </c>
       <c r="S5">
-        <v>1.122110242566689</v>
+        <v>0.9189928031250274</v>
       </c>
       <c r="T5">
-        <v>1.015221213429853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.106273335488123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.507706636350246</v>
+        <v>0.4507134068353166</v>
       </c>
       <c r="D6">
-        <v>0.7651491943234904</v>
+        <v>0.4104655034202561</v>
       </c>
       <c r="E6">
-        <v>1.234296194710989</v>
+        <v>6.67407859924857</v>
       </c>
       <c r="F6">
-        <v>1.507706636350246</v>
+        <v>0.6890219955869432</v>
       </c>
       <c r="G6">
-        <v>0.8739737795248642</v>
+        <v>0.9499523326324143</v>
       </c>
       <c r="H6">
-        <v>0.8154210776098136</v>
+        <v>0.3947500486138877</v>
       </c>
       <c r="I6">
-        <v>1.094929945247641</v>
+        <v>0.3947500486138877</v>
       </c>
       <c r="J6">
-        <v>0.7651491943234904</v>
+        <v>0.4507134068353166</v>
       </c>
       <c r="K6">
-        <v>1.507706636350246</v>
+        <v>0.4507134068353166</v>
       </c>
       <c r="L6">
-        <v>1.234296194710989</v>
+        <v>0.9499523326324143</v>
       </c>
       <c r="M6">
-        <v>0.9997226945172397</v>
+        <v>0.672351190623151</v>
       </c>
       <c r="N6">
-        <v>0.9997226945172397</v>
+        <v>0.672351190623151</v>
       </c>
       <c r="O6">
-        <v>0.9382888222147644</v>
+        <v>0.5850559615555193</v>
       </c>
       <c r="P6">
-        <v>1.169050675128242</v>
+        <v>0.5984719293605395</v>
       </c>
       <c r="Q6">
-        <v>1.169050675128242</v>
+        <v>0.5984719293605396</v>
       </c>
       <c r="R6">
-        <v>1.253714665433743</v>
+        <v>0.5615322987292338</v>
       </c>
       <c r="S6">
-        <v>1.253714665433743</v>
+        <v>0.5615322987292338</v>
       </c>
       <c r="T6">
-        <v>1.048579471294508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.594830314389565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9986919092084628</v>
+        <v>1.07208757871697</v>
       </c>
       <c r="D7">
-        <v>0.9987249096886647</v>
+        <v>0.9590959079136088</v>
       </c>
       <c r="E7">
-        <v>1.00035758696541</v>
+        <v>0.9760682853842445</v>
       </c>
       <c r="F7">
-        <v>0.9986919092084628</v>
+        <v>1.022040010419586</v>
       </c>
       <c r="G7">
-        <v>1.010395249276662</v>
+        <v>1.018663275285784</v>
       </c>
       <c r="H7">
-        <v>0.9986427064581155</v>
+        <v>0.9531608841428471</v>
       </c>
       <c r="I7">
-        <v>0.9996186332754166</v>
+        <v>0.9531608841428471</v>
       </c>
       <c r="J7">
-        <v>0.9987249096886647</v>
+        <v>1.07208757871697</v>
       </c>
       <c r="K7">
-        <v>0.9986919092084628</v>
+        <v>1.07208757871697</v>
       </c>
       <c r="L7">
-        <v>1.00035758696541</v>
+        <v>1.018663275285784</v>
       </c>
       <c r="M7">
-        <v>0.9995412483270372</v>
+        <v>0.9859120797143153</v>
       </c>
       <c r="N7">
-        <v>0.9995412483270372</v>
+        <v>0.9859120797143153</v>
       </c>
       <c r="O7">
-        <v>0.9992417343707299</v>
+        <v>0.9769733557807464</v>
       </c>
       <c r="P7">
-        <v>0.9992581352875124</v>
+        <v>1.014637246048534</v>
       </c>
       <c r="Q7">
-        <v>0.9992581352875124</v>
+        <v>1.014637246048534</v>
       </c>
       <c r="R7">
-        <v>0.99911657876775</v>
+        <v>1.028999829215643</v>
       </c>
       <c r="S7">
-        <v>0.99911657876775</v>
+        <v>1.028999829215643</v>
       </c>
       <c r="T7">
-        <v>1.001071832478789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000185990310507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9967473163052355</v>
+        <v>0.9741069651830061</v>
       </c>
       <c r="D8">
-        <v>0.9956516222334422</v>
+        <v>0.9970626854889972</v>
       </c>
       <c r="E8">
-        <v>1.002170472830233</v>
+        <v>1.009861156254058</v>
       </c>
       <c r="F8">
-        <v>0.9967473163052355</v>
+        <v>1.004663795704197</v>
       </c>
       <c r="G8">
-        <v>1.02397143241917</v>
+        <v>1.007977303261985</v>
       </c>
       <c r="H8">
-        <v>0.9968286000931585</v>
+        <v>1.002678603909377</v>
       </c>
       <c r="I8">
-        <v>0.9994091816498004</v>
+        <v>1.002678603909377</v>
       </c>
       <c r="J8">
-        <v>0.9956516222334422</v>
+        <v>0.9741069651830061</v>
       </c>
       <c r="K8">
-        <v>0.9967473163052355</v>
+        <v>0.9741069651830061</v>
       </c>
       <c r="L8">
-        <v>1.002170472830233</v>
+        <v>1.007977303261985</v>
       </c>
       <c r="M8">
-        <v>0.9989110475318373</v>
+        <v>1.005327953585681</v>
       </c>
       <c r="N8">
-        <v>0.9989110475318373</v>
+        <v>1.005327953585681</v>
       </c>
       <c r="O8">
-        <v>0.9982168983856111</v>
+        <v>1.00257286422012</v>
       </c>
       <c r="P8">
-        <v>0.9981898037896367</v>
+        <v>0.994920957451456</v>
       </c>
       <c r="Q8">
-        <v>0.9981898037896366</v>
+        <v>0.994920957451456</v>
       </c>
       <c r="R8">
-        <v>0.9978291819185363</v>
+        <v>0.9897174593843436</v>
       </c>
       <c r="S8">
-        <v>0.9978291819185363</v>
+        <v>0.9897174593843436</v>
       </c>
       <c r="T8">
-        <v>1.002463104255173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9993917516336034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9955668843270772</v>
+        <v>1.138262121873935</v>
       </c>
       <c r="D9">
-        <v>0.9949225394193488</v>
+        <v>0.9238025583750485</v>
       </c>
       <c r="E9">
-        <v>1.004689531097651</v>
+        <v>0.9632479662361587</v>
       </c>
       <c r="F9">
-        <v>0.9955668843270772</v>
+        <v>1.039718999030634</v>
       </c>
       <c r="G9">
-        <v>1.029499967381604</v>
+        <v>1.03369411805726</v>
       </c>
       <c r="H9">
-        <v>0.9945092728125664</v>
+        <v>0.9231870290168694</v>
       </c>
       <c r="I9">
-        <v>0.9998704600604559</v>
+        <v>0.9231870290168694</v>
       </c>
       <c r="J9">
-        <v>0.9949225394193488</v>
+        <v>1.138262121873935</v>
       </c>
       <c r="K9">
-        <v>0.9955668843270772</v>
+        <v>1.138262121873935</v>
       </c>
       <c r="L9">
-        <v>1.004689531097651</v>
+        <v>1.03369411805726</v>
       </c>
       <c r="M9">
-        <v>0.9998060352584999</v>
+        <v>0.9784405735370647</v>
       </c>
       <c r="N9">
-        <v>0.9998060352584999</v>
+        <v>0.9784405735370647</v>
       </c>
       <c r="O9">
-        <v>0.9980404477765221</v>
+        <v>0.9602279018163927</v>
       </c>
       <c r="P9">
-        <v>0.9983929849480256</v>
+        <v>1.031714422982688</v>
       </c>
       <c r="Q9">
-        <v>0.9983929849480256</v>
+        <v>1.031714422982688</v>
       </c>
       <c r="R9">
-        <v>0.9976864597927885</v>
+        <v>1.0583513477055</v>
       </c>
       <c r="S9">
-        <v>0.9976864597927885</v>
+        <v>1.0583513477055</v>
       </c>
       <c r="T9">
-        <v>1.00317644251645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.003652132098318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9904385140229781</v>
+        <v>0.4323755083141466</v>
       </c>
       <c r="D10">
-        <v>0.9888700872009636</v>
+        <v>0.3931587410769016</v>
       </c>
       <c r="E10">
-        <v>1.00788138248371</v>
+        <v>6.803218580355069</v>
       </c>
       <c r="F10">
-        <v>0.9904385140229781</v>
+        <v>0.678895783814436</v>
       </c>
       <c r="G10">
-        <v>1.068853756559306</v>
+        <v>0.9416533124280216</v>
       </c>
       <c r="H10">
-        <v>0.988663940932492</v>
+        <v>0.4400306085493877</v>
       </c>
       <c r="I10">
-        <v>0.9987303631385309</v>
+        <v>0.4400306085493877</v>
       </c>
       <c r="J10">
-        <v>0.9888700872009636</v>
+        <v>0.4323755083141466</v>
       </c>
       <c r="K10">
-        <v>0.9904385140229781</v>
+        <v>0.4323755083141466</v>
       </c>
       <c r="L10">
-        <v>1.00788138248371</v>
+        <v>0.9416533124280216</v>
       </c>
       <c r="M10">
-        <v>0.9983757348423365</v>
+        <v>0.6908419604887046</v>
       </c>
       <c r="N10">
-        <v>0.9983757348423365</v>
+        <v>0.6908419604887046</v>
       </c>
       <c r="O10">
-        <v>0.9951384702057217</v>
+        <v>0.5916142206847703</v>
       </c>
       <c r="P10">
-        <v>0.9957299945692171</v>
+        <v>0.6046864764305186</v>
       </c>
       <c r="Q10">
-        <v>0.9957299945692171</v>
+        <v>0.6046864764305186</v>
       </c>
       <c r="R10">
-        <v>0.9944071244326573</v>
+        <v>0.5616087344014257</v>
       </c>
       <c r="S10">
-        <v>0.9944071244326573</v>
+        <v>0.5616087344014257</v>
       </c>
       <c r="T10">
-        <v>1.00723967405633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.614888755756327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9846151822120509</v>
+        <v>1.394999653588981</v>
       </c>
       <c r="D11">
-        <v>0.9814178275291956</v>
+        <v>0.910854725729117</v>
       </c>
       <c r="E11">
-        <v>1.019972469259182</v>
+        <v>1.019921126420359</v>
       </c>
       <c r="F11">
-        <v>0.9846151822120509</v>
+        <v>0.9888366197107221</v>
       </c>
       <c r="G11">
-        <v>1.102738078609217</v>
+        <v>0.8874465598855523</v>
       </c>
       <c r="H11">
-        <v>0.9810491078817641</v>
+        <v>0.9538358730806458</v>
       </c>
       <c r="I11">
-        <v>0.9985917648623746</v>
+        <v>0.9538358730806458</v>
       </c>
       <c r="J11">
-        <v>0.9814178275291956</v>
+        <v>1.394999653588981</v>
       </c>
       <c r="K11">
-        <v>0.9846151822120509</v>
+        <v>1.394999653588981</v>
       </c>
       <c r="L11">
-        <v>1.019972469259182</v>
+        <v>0.8874465598855523</v>
       </c>
       <c r="M11">
-        <v>1.000695148394189</v>
+        <v>0.920641216483099</v>
       </c>
       <c r="N11">
-        <v>1.000695148394189</v>
+        <v>0.920641216483099</v>
       </c>
       <c r="O11">
-        <v>0.9941464682233806</v>
+        <v>0.9173790528984384</v>
       </c>
       <c r="P11">
-        <v>0.9953351596668095</v>
+        <v>1.078760695518393</v>
       </c>
       <c r="Q11">
-        <v>0.9953351596668094</v>
+        <v>1.078760695518393</v>
       </c>
       <c r="R11">
-        <v>0.9926551653031198</v>
+        <v>1.15782043503604</v>
       </c>
       <c r="S11">
-        <v>0.9926551653031198</v>
+        <v>1.15782043503604</v>
       </c>
       <c r="T11">
-        <v>1.011397405058964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.025982426402563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.532248593482895</v>
+        <v>0.7983599652305267</v>
       </c>
       <c r="D12">
-        <v>0.8486463242385631</v>
+        <v>0.7681532926363958</v>
       </c>
       <c r="E12">
-        <v>0.6693754354963697</v>
+        <v>2.458348210829846</v>
       </c>
       <c r="F12">
-        <v>1.532248593482895</v>
+        <v>0.9526476350421066</v>
       </c>
       <c r="G12">
-        <v>0.08048583594240773</v>
+        <v>1.064917113442109</v>
       </c>
       <c r="H12">
-        <v>1.23037663066407</v>
+        <v>0.9325997842556422</v>
       </c>
       <c r="I12">
-        <v>0.9583055281286249</v>
+        <v>0.9325997842556422</v>
       </c>
       <c r="J12">
-        <v>0.8486463242385631</v>
+        <v>0.7983599652305267</v>
       </c>
       <c r="K12">
-        <v>1.532248593482895</v>
+        <v>0.7983599652305267</v>
       </c>
       <c r="L12">
-        <v>0.6693754354963697</v>
+        <v>1.064917113442109</v>
       </c>
       <c r="M12">
-        <v>0.7590108798674664</v>
+        <v>0.9987584488488757</v>
       </c>
       <c r="N12">
-        <v>0.7590108798674664</v>
+        <v>0.9987584488488757</v>
       </c>
       <c r="O12">
-        <v>0.9161327967996676</v>
+        <v>0.9218900634447157</v>
       </c>
       <c r="P12">
-        <v>1.016756784405943</v>
+        <v>0.931958954309426</v>
       </c>
       <c r="Q12">
-        <v>1.016756784405943</v>
+        <v>0.931958954309426</v>
       </c>
       <c r="R12">
-        <v>1.145629736675181</v>
+        <v>0.8985592070397012</v>
       </c>
       <c r="S12">
-        <v>1.145629736675181</v>
+        <v>0.8985592070397012</v>
       </c>
       <c r="T12">
-        <v>0.886573057992155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.162504333572771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7371114305529008</v>
+        <v>0.9989636232113126</v>
       </c>
       <c r="D13">
-        <v>1.430707025136992</v>
+        <v>1.119136895830945</v>
       </c>
       <c r="E13">
-        <v>1.136844496389179</v>
+        <v>0.6560394668589072</v>
       </c>
       <c r="F13">
-        <v>0.7371114305529008</v>
+        <v>0.9452387543325902</v>
       </c>
       <c r="G13">
-        <v>1.06999539874635</v>
+        <v>0.9053995703390313</v>
       </c>
       <c r="H13">
-        <v>0.9647145813316587</v>
+        <v>1.374547282337433</v>
       </c>
       <c r="I13">
-        <v>0.9929795423844694</v>
+        <v>1.374547282337433</v>
       </c>
       <c r="J13">
-        <v>1.430707025136992</v>
+        <v>0.9989636232113126</v>
       </c>
       <c r="K13">
-        <v>0.7371114305529008</v>
+        <v>0.9989636232113126</v>
       </c>
       <c r="L13">
-        <v>1.136844496389179</v>
+        <v>0.9053995703390313</v>
       </c>
       <c r="M13">
-        <v>1.283775760763086</v>
+        <v>1.139973426338232</v>
       </c>
       <c r="N13">
-        <v>1.283775760763086</v>
+        <v>1.139973426338232</v>
       </c>
       <c r="O13">
-        <v>1.177422034285943</v>
+        <v>1.133027916169136</v>
       </c>
       <c r="P13">
-        <v>1.101554317359691</v>
+        <v>1.092970158629259</v>
       </c>
       <c r="Q13">
-        <v>1.101554317359691</v>
+        <v>1.092970158629259</v>
       </c>
       <c r="R13">
-        <v>1.010443595657993</v>
+        <v>1.069468524774772</v>
       </c>
       <c r="S13">
-        <v>1.010443595657993</v>
+        <v>1.069468524774772</v>
       </c>
       <c r="T13">
-        <v>1.055392079090258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9998875988183696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.594468388264348</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="D14">
-        <v>0.4790915275389507</v>
+        <v>-0.003116857</v>
       </c>
       <c r="E14">
-        <v>0.6985944381668218</v>
+        <v>11.47787300000001</v>
       </c>
       <c r="F14">
-        <v>1.594468388264348</v>
+        <v>0.3721673800000003</v>
       </c>
       <c r="G14">
-        <v>0.07012133643017227</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="H14">
-        <v>1.297889783984052</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="I14">
-        <v>0.9452800615985772</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="J14">
-        <v>0.4790915275389507</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="K14">
-        <v>1.594468388264348</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L14">
-        <v>0.6985944381668218</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="M14">
-        <v>0.5888429828528863</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="N14">
-        <v>0.5888429828528863</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="O14">
-        <v>0.8251919165632747</v>
+        <v>0.2729730544000002</v>
       </c>
       <c r="P14">
-        <v>0.9240514513233734</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="Q14">
-        <v>0.9240514513233736</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="R14">
-        <v>1.091655685558617</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="S14">
-        <v>1.091655685558617</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="T14">
-        <v>0.8475742559971536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>2.112740133116669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.795543926180049</v>
+        <v>0.026860566</v>
       </c>
       <c r="D15">
-        <v>1.862951715151143</v>
+        <v>0.08708046</v>
       </c>
       <c r="E15">
-        <v>1.121593773365537</v>
+        <v>0.82533516</v>
       </c>
       <c r="F15">
-        <v>0.795543926180049</v>
+        <v>1.6908934</v>
       </c>
       <c r="G15">
-        <v>0.9934406675015172</v>
+        <v>3.8304141</v>
       </c>
       <c r="H15">
-        <v>0.8607575583148167</v>
+        <v>0.0040030202</v>
       </c>
       <c r="I15">
-        <v>1.028542702048549</v>
+        <v>0.0040030202</v>
       </c>
       <c r="J15">
-        <v>1.862951715151143</v>
+        <v>0.026860566</v>
       </c>
       <c r="K15">
-        <v>0.795543926180049</v>
+        <v>0.026860566</v>
       </c>
       <c r="L15">
-        <v>1.121593773365537</v>
+        <v>3.8304141</v>
       </c>
       <c r="M15">
-        <v>1.49227274425834</v>
+        <v>1.9172085601</v>
       </c>
       <c r="N15">
-        <v>1.49227274425834</v>
+        <v>1.9172085601</v>
       </c>
       <c r="O15">
-        <v>1.281767682277166</v>
+        <v>1.307165860066667</v>
       </c>
       <c r="P15">
-        <v>1.26002980489891</v>
+        <v>1.287092562066667</v>
       </c>
       <c r="Q15">
-        <v>1.26002980489891</v>
+        <v>1.287092562066667</v>
       </c>
       <c r="R15">
-        <v>1.143908335219195</v>
+        <v>0.97203456305</v>
       </c>
       <c r="S15">
-        <v>1.143908335219195</v>
+        <v>0.97203456305</v>
       </c>
       <c r="T15">
-        <v>1.110471723760269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.0774311177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.013301115291714</v>
+        <v>7.654601</v>
       </c>
       <c r="D16">
-        <v>1.001620835608678</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="E16">
-        <v>0.9931303881649857</v>
+        <v>0.0074812554</v>
       </c>
       <c r="F16">
-        <v>1.013301115291714</v>
+        <v>0.60377661</v>
       </c>
       <c r="G16">
-        <v>1.006695315098573</v>
+        <v>0.026860481</v>
       </c>
       <c r="H16">
-        <v>1.00049987854744</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I16">
-        <v>0.9955417811652437</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="J16">
-        <v>1.001620835608678</v>
+        <v>7.654601</v>
       </c>
       <c r="K16">
-        <v>1.013301115291714</v>
+        <v>7.654601</v>
       </c>
       <c r="L16">
-        <v>0.9931303881649857</v>
+        <v>0.026860481</v>
       </c>
       <c r="M16">
-        <v>0.997375611886832</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N16">
-        <v>0.997375611886832</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O16">
-        <v>0.9984170341070348</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P16">
-        <v>1.002684113021793</v>
+        <v>2.560703383216667</v>
       </c>
       <c r="Q16">
-        <v>1.002684113021793</v>
+        <v>2.560703383216667</v>
       </c>
       <c r="R16">
-        <v>1.005338363589273</v>
+        <v>3.8341777874125</v>
       </c>
       <c r="S16">
-        <v>1.005338363589273</v>
+        <v>3.8341777874125</v>
       </c>
       <c r="T16">
-        <v>1.001798218979439</v>
+        <v>1.391753230841667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9741069651830053</v>
+        <v>0.018940386</v>
       </c>
       <c r="D17">
-        <v>1.002678603909377</v>
+        <v>0.85368298</v>
       </c>
       <c r="E17">
-        <v>1.007977303261984</v>
+        <v>0.028877645</v>
       </c>
       <c r="F17">
-        <v>0.9741069651830053</v>
+        <v>0.90303793</v>
       </c>
       <c r="G17">
-        <v>1.009861156254058</v>
+        <v>1.9956158</v>
       </c>
       <c r="H17">
-        <v>0.9970626854889972</v>
+        <v>0.15082658</v>
       </c>
       <c r="I17">
-        <v>1.004663795704196</v>
+        <v>0.15082658</v>
       </c>
       <c r="J17">
-        <v>1.002678603909377</v>
+        <v>0.018940386</v>
       </c>
       <c r="K17">
-        <v>0.9741069651830053</v>
+        <v>0.018940386</v>
       </c>
       <c r="L17">
-        <v>1.007977303261984</v>
+        <v>1.9956158</v>
       </c>
       <c r="M17">
-        <v>1.005327953585681</v>
+        <v>1.07322119</v>
       </c>
       <c r="N17">
-        <v>1.005327953585681</v>
+        <v>1.07322119</v>
       </c>
       <c r="O17">
-        <v>1.002572864220119</v>
+        <v>1.000041786666667</v>
       </c>
       <c r="P17">
-        <v>0.9949209574514555</v>
+        <v>0.7217942553333333</v>
       </c>
       <c r="Q17">
-        <v>0.9949209574514555</v>
+        <v>0.7217942553333333</v>
       </c>
       <c r="R17">
-        <v>0.989717459384343</v>
+        <v>0.546080788</v>
       </c>
       <c r="S17">
-        <v>0.989717459384343</v>
+        <v>0.546080788</v>
       </c>
       <c r="T17">
-        <v>0.9993917516336029</v>
+        <v>0.6584968868333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.078963719046365</v>
+        <v>2.67793789109589</v>
       </c>
       <c r="D18">
-        <v>0.9842957564461348</v>
+        <v>0.113632372</v>
       </c>
       <c r="E18">
-        <v>0.9951814378705847</v>
+        <v>0.304298500389041</v>
       </c>
       <c r="F18">
-        <v>1.078963719046365</v>
+        <v>1.505498774520548</v>
       </c>
       <c r="G18">
-        <v>1.009978991006945</v>
+        <v>1.402062693835617</v>
       </c>
       <c r="H18">
-        <v>0.9868364384981849</v>
+        <v>0.001350872246849315</v>
       </c>
       <c r="I18">
-        <v>0.9858556528144221</v>
+        <v>0.001350872246849315</v>
       </c>
       <c r="J18">
-        <v>0.9842957564461348</v>
+        <v>2.67793789109589</v>
       </c>
       <c r="K18">
-        <v>1.078963719046365</v>
+        <v>2.67793789109589</v>
       </c>
       <c r="L18">
-        <v>0.9951814378705847</v>
+        <v>1.402062693835617</v>
       </c>
       <c r="M18">
-        <v>0.9897385971583597</v>
+        <v>0.7017067830412331</v>
       </c>
       <c r="N18">
-        <v>0.9897385971583597</v>
+        <v>0.7017067830412331</v>
       </c>
       <c r="O18">
-        <v>0.9887712109383013</v>
+        <v>0.5056819793608222</v>
       </c>
       <c r="P18">
-        <v>1.019480304454361</v>
+        <v>1.360450485726119</v>
       </c>
       <c r="Q18">
-        <v>1.019480304454361</v>
+        <v>1.360450485726119</v>
       </c>
       <c r="R18">
-        <v>1.034351158102362</v>
+        <v>1.689822337068561</v>
       </c>
       <c r="S18">
-        <v>1.034351158102362</v>
+        <v>1.689822337068561</v>
       </c>
       <c r="T18">
-        <v>1.006851999280439</v>
+        <v>1.000796850681324</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.253299201028837</v>
+        <v>1.304722441552632</v>
       </c>
       <c r="D19">
-        <v>0.9734811062813213</v>
+        <v>0.7720825663379474</v>
       </c>
       <c r="E19">
-        <v>0.92597314068929</v>
+        <v>1.59856441045579</v>
       </c>
       <c r="F19">
-        <v>1.253299201028837</v>
+        <v>1.028342450526316</v>
       </c>
       <c r="G19">
-        <v>0.9770852426213185</v>
+        <v>0.9647919070000001</v>
       </c>
       <c r="H19">
-        <v>0.9728581893823705</v>
+        <v>0.06081105158842105</v>
       </c>
       <c r="I19">
-        <v>0.9728297900206276</v>
+        <v>0.06081105158842105</v>
       </c>
       <c r="J19">
-        <v>0.9734811062813213</v>
+        <v>1.304722441552632</v>
       </c>
       <c r="K19">
-        <v>1.253299201028837</v>
+        <v>1.304722441552632</v>
       </c>
       <c r="L19">
-        <v>0.92597314068929</v>
+        <v>0.9647919070000001</v>
       </c>
       <c r="M19">
-        <v>0.9497271234853057</v>
+        <v>0.5128014792942106</v>
       </c>
       <c r="N19">
-        <v>0.9497271234853057</v>
+        <v>0.5128014792942106</v>
       </c>
       <c r="O19">
-        <v>0.9574374787843274</v>
+        <v>0.5992285083087895</v>
       </c>
       <c r="P19">
-        <v>1.050917815999816</v>
+        <v>0.776775133380351</v>
       </c>
       <c r="Q19">
-        <v>1.050917815999816</v>
+        <v>0.776775133380351</v>
       </c>
       <c r="R19">
-        <v>1.101513162257071</v>
+        <v>0.9087619604234212</v>
       </c>
       <c r="S19">
-        <v>1.101513162257071</v>
+        <v>0.9087619604234212</v>
       </c>
       <c r="T19">
-        <v>1.012587778337294</v>
+        <v>0.954885804576851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.865244737331579</v>
+      </c>
+      <c r="D20">
+        <v>0.5502721510661578</v>
+      </c>
+      <c r="E20">
+        <v>2.895645022052633</v>
+      </c>
+      <c r="F20">
+        <v>0.839499502105263</v>
+      </c>
+      <c r="G20">
+        <v>1.225597821052632</v>
+      </c>
+      <c r="H20">
+        <v>1.71504124877579</v>
+      </c>
+      <c r="I20">
+        <v>1.71504124877579</v>
+      </c>
+      <c r="J20">
+        <v>0.865244737331579</v>
+      </c>
+      <c r="K20">
+        <v>0.865244737331579</v>
+      </c>
+      <c r="L20">
+        <v>1.225597821052632</v>
+      </c>
+      <c r="M20">
+        <v>1.470319534914211</v>
+      </c>
+      <c r="N20">
+        <v>1.470319534914211</v>
+      </c>
+      <c r="O20">
+        <v>1.163637073631526</v>
+      </c>
+      <c r="P20">
+        <v>1.26862793572</v>
+      </c>
+      <c r="Q20">
+        <v>1.26862793572</v>
+      </c>
+      <c r="R20">
+        <v>1.167782136122895</v>
+      </c>
+      <c r="S20">
+        <v>1.167782136122895</v>
+      </c>
+      <c r="T20">
+        <v>1.348550080397342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.594468388264348</v>
+      </c>
+      <c r="D21">
+        <v>1.297889783984052</v>
+      </c>
+      <c r="E21">
+        <v>0.07012133643017217</v>
+      </c>
+      <c r="F21">
+        <v>0.9452800615985772</v>
+      </c>
+      <c r="G21">
+        <v>0.6985944381668217</v>
+      </c>
+      <c r="H21">
+        <v>0.4790915275389506</v>
+      </c>
+      <c r="I21">
+        <v>0.4790915275389506</v>
+      </c>
+      <c r="J21">
+        <v>1.594468388264348</v>
+      </c>
+      <c r="K21">
+        <v>1.594468388264348</v>
+      </c>
+      <c r="L21">
+        <v>0.6985944381668217</v>
+      </c>
+      <c r="M21">
+        <v>0.5888429828528862</v>
+      </c>
+      <c r="N21">
+        <v>0.5888429828528862</v>
+      </c>
+      <c r="O21">
+        <v>0.8251919165632747</v>
+      </c>
+      <c r="P21">
+        <v>0.9240514513233733</v>
+      </c>
+      <c r="Q21">
+        <v>0.9240514513233732</v>
+      </c>
+      <c r="R21">
+        <v>1.091655685558617</v>
+      </c>
+      <c r="S21">
+        <v>1.091655685558617</v>
+      </c>
+      <c r="T21">
+        <v>0.8475742559971534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.795543926180049</v>
+      </c>
+      <c r="D22">
+        <v>0.8607575583148165</v>
+      </c>
+      <c r="E22">
+        <v>0.9934406675015172</v>
+      </c>
+      <c r="F22">
+        <v>1.028542702048549</v>
+      </c>
+      <c r="G22">
+        <v>1.121593773365537</v>
+      </c>
+      <c r="H22">
+        <v>1.862951715151143</v>
+      </c>
+      <c r="I22">
+        <v>1.862951715151143</v>
+      </c>
+      <c r="J22">
+        <v>0.795543926180049</v>
+      </c>
+      <c r="K22">
+        <v>0.795543926180049</v>
+      </c>
+      <c r="L22">
+        <v>1.121593773365537</v>
+      </c>
+      <c r="M22">
+        <v>1.49227274425834</v>
+      </c>
+      <c r="N22">
+        <v>1.49227274425834</v>
+      </c>
+      <c r="O22">
+        <v>1.281767682277166</v>
+      </c>
+      <c r="P22">
+        <v>1.26002980489891</v>
+      </c>
+      <c r="Q22">
+        <v>1.26002980489891</v>
+      </c>
+      <c r="R22">
+        <v>1.143908335219195</v>
+      </c>
+      <c r="S22">
+        <v>1.143908335219195</v>
+      </c>
+      <c r="T22">
+        <v>1.110471723760269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.532248593482896</v>
+      </c>
+      <c r="D23">
+        <v>1.23037663066407</v>
+      </c>
+      <c r="E23">
+        <v>0.08048583594240753</v>
+      </c>
+      <c r="F23">
+        <v>0.9583055281286248</v>
+      </c>
+      <c r="G23">
+        <v>0.6693754354963696</v>
+      </c>
+      <c r="H23">
+        <v>0.8486463242385629</v>
+      </c>
+      <c r="I23">
+        <v>0.8486463242385629</v>
+      </c>
+      <c r="J23">
+        <v>1.532248593482896</v>
+      </c>
+      <c r="K23">
+        <v>1.532248593482896</v>
+      </c>
+      <c r="L23">
+        <v>0.6693754354963696</v>
+      </c>
+      <c r="M23">
+        <v>0.7590108798674662</v>
+      </c>
+      <c r="N23">
+        <v>0.7590108798674662</v>
+      </c>
+      <c r="O23">
+        <v>0.9161327967996676</v>
+      </c>
+      <c r="P23">
+        <v>1.016756784405943</v>
+      </c>
+      <c r="Q23">
+        <v>1.016756784405943</v>
+      </c>
+      <c r="R23">
+        <v>1.145629736675181</v>
+      </c>
+      <c r="S23">
+        <v>1.145629736675181</v>
+      </c>
+      <c r="T23">
+        <v>0.886573057992155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7371114305529008</v>
+      </c>
+      <c r="D24">
+        <v>0.9647145813316587</v>
+      </c>
+      <c r="E24">
+        <v>1.06999539874635</v>
+      </c>
+      <c r="F24">
+        <v>0.9929795423844694</v>
+      </c>
+      <c r="G24">
+        <v>1.136844496389179</v>
+      </c>
+      <c r="H24">
+        <v>1.430707025136993</v>
+      </c>
+      <c r="I24">
+        <v>1.430707025136993</v>
+      </c>
+      <c r="J24">
+        <v>0.7371114305529008</v>
+      </c>
+      <c r="K24">
+        <v>0.7371114305529008</v>
+      </c>
+      <c r="L24">
+        <v>1.136844496389179</v>
+      </c>
+      <c r="M24">
+        <v>1.283775760763086</v>
+      </c>
+      <c r="N24">
+        <v>1.283775760763086</v>
+      </c>
+      <c r="O24">
+        <v>1.177422034285943</v>
+      </c>
+      <c r="P24">
+        <v>1.101554317359691</v>
+      </c>
+      <c r="Q24">
+        <v>1.101554317359691</v>
+      </c>
+      <c r="R24">
+        <v>1.010443595657993</v>
+      </c>
+      <c r="S24">
+        <v>1.010443595657993</v>
+      </c>
+      <c r="T24">
+        <v>1.055392079090258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.427131489860534</v>
+      </c>
+      <c r="D25">
+        <v>1.207152507872454</v>
+      </c>
+      <c r="E25">
+        <v>0.09326626203199281</v>
+      </c>
+      <c r="F25">
+        <v>0.9867087111524386</v>
+      </c>
+      <c r="G25">
+        <v>0.6377756666989388</v>
+      </c>
+      <c r="H25">
+        <v>1.185897445755346</v>
+      </c>
+      <c r="I25">
+        <v>1.185897445755346</v>
+      </c>
+      <c r="J25">
+        <v>1.427131489860534</v>
+      </c>
+      <c r="K25">
+        <v>1.427131489860534</v>
+      </c>
+      <c r="L25">
+        <v>0.6377756666989388</v>
+      </c>
+      <c r="M25">
+        <v>0.9118365562271424</v>
+      </c>
+      <c r="N25">
+        <v>0.9118365562271424</v>
+      </c>
+      <c r="O25">
+        <v>1.01027520677558</v>
+      </c>
+      <c r="P25">
+        <v>1.083601534104939</v>
+      </c>
+      <c r="Q25">
+        <v>1.083601534104939</v>
+      </c>
+      <c r="R25">
+        <v>1.169484023043838</v>
+      </c>
+      <c r="S25">
+        <v>1.169484023043838</v>
+      </c>
+      <c r="T25">
+        <v>0.9229886805619505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6604465765275324</v>
+      </c>
+      <c r="D26">
+        <v>1.076663490920741</v>
+      </c>
+      <c r="E26">
+        <v>1.138845314061495</v>
+      </c>
+      <c r="F26">
+        <v>0.940746703608289</v>
+      </c>
+      <c r="G26">
+        <v>1.149738971935233</v>
+      </c>
+      <c r="H26">
+        <v>1.057886562262992</v>
+      </c>
+      <c r="I26">
+        <v>1.057886562262992</v>
+      </c>
+      <c r="J26">
+        <v>0.6604465765275324</v>
+      </c>
+      <c r="K26">
+        <v>0.6604465765275324</v>
+      </c>
+      <c r="L26">
+        <v>1.149738971935233</v>
+      </c>
+      <c r="M26">
+        <v>1.103812767099112</v>
+      </c>
+      <c r="N26">
+        <v>1.103812767099112</v>
+      </c>
+      <c r="O26">
+        <v>1.094763008372988</v>
+      </c>
+      <c r="P26">
+        <v>0.9560240369085856</v>
+      </c>
+      <c r="Q26">
+        <v>0.9560240369085856</v>
+      </c>
+      <c r="R26">
+        <v>0.8821296718133222</v>
+      </c>
+      <c r="S26">
+        <v>0.8821296718133222</v>
+      </c>
+      <c r="T26">
+        <v>1.00405460321938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.088679845403013</v>
+      </c>
+      <c r="D27">
+        <v>1.041917403389881</v>
+      </c>
+      <c r="E27">
+        <v>1.696411631949471</v>
+      </c>
+      <c r="F27">
+        <v>0.9104791612041685</v>
+      </c>
+      <c r="G27">
+        <v>0.8718050566115724</v>
+      </c>
+      <c r="H27">
+        <v>0.3193018818930091</v>
+      </c>
+      <c r="I27">
+        <v>0.3193018818930091</v>
+      </c>
+      <c r="J27">
+        <v>1.088679845403013</v>
+      </c>
+      <c r="K27">
+        <v>1.088679845403013</v>
+      </c>
+      <c r="L27">
+        <v>0.8718050566115724</v>
+      </c>
+      <c r="M27">
+        <v>0.5955534692522908</v>
+      </c>
+      <c r="N27">
+        <v>0.5955534692522908</v>
+      </c>
+      <c r="O27">
+        <v>0.7443414472981541</v>
+      </c>
+      <c r="P27">
+        <v>0.7599289279691982</v>
+      </c>
+      <c r="Q27">
+        <v>0.759928927969198</v>
+      </c>
+      <c r="R27">
+        <v>0.8421166573276517</v>
+      </c>
+      <c r="S27">
+        <v>0.8421166573276517</v>
+      </c>
+      <c r="T27">
+        <v>0.9880991634085191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.790000995527917</v>
+      </c>
+      <c r="D28">
+        <v>0.7109428634184668</v>
+      </c>
+      <c r="E28">
+        <v>0.9120292923720665</v>
+      </c>
+      <c r="F28">
+        <v>0.8853826978965034</v>
+      </c>
+      <c r="G28">
+        <v>0.7346944048578182</v>
+      </c>
+      <c r="H28">
+        <v>1.121173069659785</v>
+      </c>
+      <c r="I28">
+        <v>1.121173069659785</v>
+      </c>
+      <c r="J28">
+        <v>1.790000995527917</v>
+      </c>
+      <c r="K28">
+        <v>1.790000995527917</v>
+      </c>
+      <c r="L28">
+        <v>0.7346944048578182</v>
+      </c>
+      <c r="M28">
+        <v>0.9279337372588019</v>
+      </c>
+      <c r="N28">
+        <v>0.9279337372588019</v>
+      </c>
+      <c r="O28">
+        <v>0.8556034459786902</v>
+      </c>
+      <c r="P28">
+        <v>1.215289490015174</v>
+      </c>
+      <c r="Q28">
+        <v>1.215289490015173</v>
+      </c>
+      <c r="R28">
+        <v>1.358967366393359</v>
+      </c>
+      <c r="S28">
+        <v>1.358967366393359</v>
+      </c>
+      <c r="T28">
+        <v>1.02570388728876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.629078288825611</v>
+      </c>
+      <c r="D29">
+        <v>0.9290348721176954</v>
+      </c>
+      <c r="E29">
+        <v>0.01608792260931554</v>
+      </c>
+      <c r="F29">
+        <v>0.7750044585518761</v>
+      </c>
+      <c r="G29">
+        <v>1.12896658124529</v>
+      </c>
+      <c r="H29">
+        <v>0.1897674956725643</v>
+      </c>
+      <c r="I29">
+        <v>0.1897674956725643</v>
+      </c>
+      <c r="J29">
+        <v>1.629078288825611</v>
+      </c>
+      <c r="K29">
+        <v>1.629078288825611</v>
+      </c>
+      <c r="L29">
+        <v>1.12896658124529</v>
+      </c>
+      <c r="M29">
+        <v>0.659367038458927</v>
+      </c>
+      <c r="N29">
+        <v>0.659367038458927</v>
+      </c>
+      <c r="O29">
+        <v>0.7492563163451832</v>
+      </c>
+      <c r="P29">
+        <v>0.9826041219144884</v>
+      </c>
+      <c r="Q29">
+        <v>0.9826041219144884</v>
+      </c>
+      <c r="R29">
+        <v>1.144222663642269</v>
+      </c>
+      <c r="S29">
+        <v>1.144222663642269</v>
+      </c>
+      <c r="T29">
+        <v>0.7779899365037254</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.428569115157098</v>
+        <v>0.9032257998802601</v>
       </c>
       <c r="D4">
-        <v>0.8916967079992684</v>
+        <v>0.8220868719564772</v>
       </c>
       <c r="E4">
-        <v>0.9147454956322359</v>
+        <v>1.891707115078817</v>
       </c>
       <c r="F4">
-        <v>1.013997726805723</v>
+        <v>1.002224907775346</v>
       </c>
       <c r="G4">
-        <v>0.9205967416479457</v>
+        <v>1.069084325970013</v>
       </c>
       <c r="H4">
-        <v>0.8134542702340917</v>
+        <v>0.7911725893865226</v>
       </c>
       <c r="I4">
-        <v>0.8134542702340917</v>
+        <v>0.7911725893865226</v>
       </c>
       <c r="J4">
-        <v>1.428569115157098</v>
+        <v>0.9032257998802601</v>
       </c>
       <c r="K4">
-        <v>1.428569115157098</v>
+        <v>0.9032257998802601</v>
       </c>
       <c r="L4">
-        <v>0.9205967416479457</v>
+        <v>1.069084325970013</v>
       </c>
       <c r="M4">
-        <v>0.8670255059410187</v>
+        <v>0.930128457678268</v>
       </c>
       <c r="N4">
-        <v>0.8670255059410187</v>
+        <v>0.930128457678268</v>
       </c>
       <c r="O4">
-        <v>0.8752492399604352</v>
+        <v>0.8941145957710045</v>
       </c>
       <c r="P4">
-        <v>1.054206709013045</v>
+        <v>0.9211609050789321</v>
       </c>
       <c r="Q4">
-        <v>1.054206709013045</v>
+        <v>0.9211609050789319</v>
       </c>
       <c r="R4">
-        <v>1.147797310549058</v>
+        <v>0.916677128779264</v>
       </c>
       <c r="S4">
-        <v>1.147797310549058</v>
+        <v>0.916677128779264</v>
       </c>
       <c r="T4">
-        <v>0.9971766762460604</v>
+        <v>1.079916935007906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9173150968069193</v>
+        <v>0.9540960042913975</v>
       </c>
       <c r="D5">
-        <v>0.779800768717995</v>
+        <v>0.6066074087884668</v>
       </c>
       <c r="E5">
-        <v>2.099596649151557</v>
+        <v>2.309140736774177</v>
       </c>
       <c r="F5">
-        <v>0.9995864793659984</v>
+        <v>0.8509345942798728</v>
       </c>
       <c r="G5">
-        <v>1.077555948217582</v>
+        <v>1.186441255076993</v>
       </c>
       <c r="H5">
-        <v>0.7637850706686896</v>
+        <v>1.897366740959616</v>
       </c>
       <c r="I5">
-        <v>0.7637850706686896</v>
+        <v>1.897366740959616</v>
       </c>
       <c r="J5">
-        <v>0.9173150968069193</v>
+        <v>0.9540960042913975</v>
       </c>
       <c r="K5">
-        <v>0.9173150968069193</v>
+        <v>0.9540960042913975</v>
       </c>
       <c r="L5">
-        <v>1.077555948217582</v>
+        <v>1.186441255076993</v>
       </c>
       <c r="M5">
-        <v>0.9206705094431358</v>
+        <v>1.541903998018304</v>
       </c>
       <c r="N5">
-        <v>0.9206705094431358</v>
+        <v>1.541903998018304</v>
       </c>
       <c r="O5">
-        <v>0.8737139292014221</v>
+        <v>1.230138468275025</v>
       </c>
       <c r="P5">
-        <v>0.9195520385643969</v>
+        <v>1.345968000109335</v>
       </c>
       <c r="Q5">
-        <v>0.9195520385643968</v>
+        <v>1.345968000109335</v>
       </c>
       <c r="R5">
-        <v>0.9189928031250274</v>
+        <v>1.248000001154851</v>
       </c>
       <c r="S5">
-        <v>0.9189928031250274</v>
+        <v>1.248000001154851</v>
       </c>
       <c r="T5">
-        <v>1.106273335488123</v>
+        <v>1.300764456695087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4507134068353166</v>
+        <v>1.428569115157098</v>
       </c>
       <c r="D6">
-        <v>0.4104655034202561</v>
+        <v>0.8916967079992684</v>
       </c>
       <c r="E6">
-        <v>6.67407859924857</v>
+        <v>0.9147454956322359</v>
       </c>
       <c r="F6">
-        <v>0.6890219955869432</v>
+        <v>1.013997726805723</v>
       </c>
       <c r="G6">
-        <v>0.9499523326324143</v>
+        <v>0.9205967416479457</v>
       </c>
       <c r="H6">
-        <v>0.3947500486138877</v>
+        <v>0.8134542702340917</v>
       </c>
       <c r="I6">
-        <v>0.3947500486138877</v>
+        <v>0.8134542702340917</v>
       </c>
       <c r="J6">
-        <v>0.4507134068353166</v>
+        <v>1.428569115157098</v>
       </c>
       <c r="K6">
-        <v>0.4507134068353166</v>
+        <v>1.428569115157098</v>
       </c>
       <c r="L6">
-        <v>0.9499523326324143</v>
+        <v>0.9205967416479457</v>
       </c>
       <c r="M6">
-        <v>0.672351190623151</v>
+        <v>0.8670255059410187</v>
       </c>
       <c r="N6">
-        <v>0.672351190623151</v>
+        <v>0.8670255059410187</v>
       </c>
       <c r="O6">
-        <v>0.5850559615555193</v>
+        <v>0.8752492399604352</v>
       </c>
       <c r="P6">
-        <v>0.5984719293605395</v>
+        <v>1.054206709013045</v>
       </c>
       <c r="Q6">
-        <v>0.5984719293605396</v>
+        <v>1.054206709013045</v>
       </c>
       <c r="R6">
-        <v>0.5615322987292338</v>
+        <v>1.147797310549058</v>
       </c>
       <c r="S6">
-        <v>0.5615322987292338</v>
+        <v>1.147797310549058</v>
       </c>
       <c r="T6">
-        <v>1.594830314389565</v>
+        <v>0.9971766762460604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.07208757871697</v>
+        <v>0.9173150968069193</v>
       </c>
       <c r="D7">
-        <v>0.9590959079136088</v>
+        <v>0.779800768717995</v>
       </c>
       <c r="E7">
-        <v>0.9760682853842445</v>
+        <v>2.099596649151557</v>
       </c>
       <c r="F7">
-        <v>1.022040010419586</v>
+        <v>0.9995864793659984</v>
       </c>
       <c r="G7">
-        <v>1.018663275285784</v>
+        <v>1.077555948217582</v>
       </c>
       <c r="H7">
-        <v>0.9531608841428471</v>
+        <v>0.7637850706686896</v>
       </c>
       <c r="I7">
-        <v>0.9531608841428471</v>
+        <v>0.7637850706686896</v>
       </c>
       <c r="J7">
-        <v>1.07208757871697</v>
+        <v>0.9173150968069193</v>
       </c>
       <c r="K7">
-        <v>1.07208757871697</v>
+        <v>0.9173150968069193</v>
       </c>
       <c r="L7">
-        <v>1.018663275285784</v>
+        <v>1.077555948217582</v>
       </c>
       <c r="M7">
-        <v>0.9859120797143153</v>
+        <v>0.9206705094431358</v>
       </c>
       <c r="N7">
-        <v>0.9859120797143153</v>
+        <v>0.9206705094431358</v>
       </c>
       <c r="O7">
-        <v>0.9769733557807464</v>
+        <v>0.8737139292014221</v>
       </c>
       <c r="P7">
-        <v>1.014637246048534</v>
+        <v>0.9195520385643969</v>
       </c>
       <c r="Q7">
-        <v>1.014637246048534</v>
+        <v>0.9195520385643968</v>
       </c>
       <c r="R7">
-        <v>1.028999829215643</v>
+        <v>0.9189928031250274</v>
       </c>
       <c r="S7">
-        <v>1.028999829215643</v>
+        <v>0.9189928031250274</v>
       </c>
       <c r="T7">
-        <v>1.000185990310507</v>
+        <v>1.106273335488123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9741069651830061</v>
+        <v>0.4507134068353166</v>
       </c>
       <c r="D8">
-        <v>0.9970626854889972</v>
+        <v>0.4104655034202561</v>
       </c>
       <c r="E8">
-        <v>1.009861156254058</v>
+        <v>6.67407859924857</v>
       </c>
       <c r="F8">
-        <v>1.004663795704197</v>
+        <v>0.6890219955869432</v>
       </c>
       <c r="G8">
-        <v>1.007977303261985</v>
+        <v>0.9499523326324143</v>
       </c>
       <c r="H8">
-        <v>1.002678603909377</v>
+        <v>0.3947500486138877</v>
       </c>
       <c r="I8">
-        <v>1.002678603909377</v>
+        <v>0.3947500486138877</v>
       </c>
       <c r="J8">
-        <v>0.9741069651830061</v>
+        <v>0.4507134068353166</v>
       </c>
       <c r="K8">
-        <v>0.9741069651830061</v>
+        <v>0.4507134068353166</v>
       </c>
       <c r="L8">
-        <v>1.007977303261985</v>
+        <v>0.9499523326324143</v>
       </c>
       <c r="M8">
-        <v>1.005327953585681</v>
+        <v>0.672351190623151</v>
       </c>
       <c r="N8">
-        <v>1.005327953585681</v>
+        <v>0.672351190623151</v>
       </c>
       <c r="O8">
-        <v>1.00257286422012</v>
+        <v>0.5850559615555193</v>
       </c>
       <c r="P8">
-        <v>0.994920957451456</v>
+        <v>0.5984719293605395</v>
       </c>
       <c r="Q8">
-        <v>0.994920957451456</v>
+        <v>0.5984719293605396</v>
       </c>
       <c r="R8">
-        <v>0.9897174593843436</v>
+        <v>0.5615322987292338</v>
       </c>
       <c r="S8">
-        <v>0.9897174593843436</v>
+        <v>0.5615322987292338</v>
       </c>
       <c r="T8">
-        <v>0.9993917516336034</v>
+        <v>1.594830314389565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.138262121873935</v>
+        <v>1.07208757871697</v>
       </c>
       <c r="D9">
-        <v>0.9238025583750485</v>
+        <v>0.9590959079136088</v>
       </c>
       <c r="E9">
-        <v>0.9632479662361587</v>
+        <v>0.9760682853842445</v>
       </c>
       <c r="F9">
-        <v>1.039718999030634</v>
+        <v>1.022040010419586</v>
       </c>
       <c r="G9">
-        <v>1.03369411805726</v>
+        <v>1.018663275285784</v>
       </c>
       <c r="H9">
-        <v>0.9231870290168694</v>
+        <v>0.9531608841428471</v>
       </c>
       <c r="I9">
-        <v>0.9231870290168694</v>
+        <v>0.9531608841428471</v>
       </c>
       <c r="J9">
-        <v>1.138262121873935</v>
+        <v>1.07208757871697</v>
       </c>
       <c r="K9">
-        <v>1.138262121873935</v>
+        <v>1.07208757871697</v>
       </c>
       <c r="L9">
-        <v>1.03369411805726</v>
+        <v>1.018663275285784</v>
       </c>
       <c r="M9">
-        <v>0.9784405735370647</v>
+        <v>0.9859120797143153</v>
       </c>
       <c r="N9">
-        <v>0.9784405735370647</v>
+        <v>0.9859120797143153</v>
       </c>
       <c r="O9">
-        <v>0.9602279018163927</v>
+        <v>0.9769733557807464</v>
       </c>
       <c r="P9">
-        <v>1.031714422982688</v>
+        <v>1.014637246048534</v>
       </c>
       <c r="Q9">
-        <v>1.031714422982688</v>
+        <v>1.014637246048534</v>
       </c>
       <c r="R9">
-        <v>1.0583513477055</v>
+        <v>1.028999829215643</v>
       </c>
       <c r="S9">
-        <v>1.0583513477055</v>
+        <v>1.028999829215643</v>
       </c>
       <c r="T9">
-        <v>1.003652132098318</v>
+        <v>1.000185990310507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4323755083141466</v>
+        <v>0.9741069651830061</v>
       </c>
       <c r="D10">
-        <v>0.3931587410769016</v>
+        <v>0.9970626854889972</v>
       </c>
       <c r="E10">
-        <v>6.803218580355069</v>
+        <v>1.009861156254058</v>
       </c>
       <c r="F10">
-        <v>0.678895783814436</v>
+        <v>1.004663795704197</v>
       </c>
       <c r="G10">
-        <v>0.9416533124280216</v>
+        <v>1.007977303261985</v>
       </c>
       <c r="H10">
-        <v>0.4400306085493877</v>
+        <v>1.002678603909377</v>
       </c>
       <c r="I10">
-        <v>0.4400306085493877</v>
+        <v>1.002678603909377</v>
       </c>
       <c r="J10">
-        <v>0.4323755083141466</v>
+        <v>0.9741069651830061</v>
       </c>
       <c r="K10">
-        <v>0.4323755083141466</v>
+        <v>0.9741069651830061</v>
       </c>
       <c r="L10">
-        <v>0.9416533124280216</v>
+        <v>1.007977303261985</v>
       </c>
       <c r="M10">
-        <v>0.6908419604887046</v>
+        <v>1.005327953585681</v>
       </c>
       <c r="N10">
-        <v>0.6908419604887046</v>
+        <v>1.005327953585681</v>
       </c>
       <c r="O10">
-        <v>0.5916142206847703</v>
+        <v>1.00257286422012</v>
       </c>
       <c r="P10">
-        <v>0.6046864764305186</v>
+        <v>0.994920957451456</v>
       </c>
       <c r="Q10">
-        <v>0.6046864764305186</v>
+        <v>0.994920957451456</v>
       </c>
       <c r="R10">
-        <v>0.5616087344014257</v>
+        <v>0.9897174593843436</v>
       </c>
       <c r="S10">
-        <v>0.5616087344014257</v>
+        <v>0.9897174593843436</v>
       </c>
       <c r="T10">
-        <v>1.614888755756327</v>
+        <v>0.9993917516336034</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.394999653588981</v>
+        <v>1.138262121873935</v>
       </c>
       <c r="D11">
-        <v>0.910854725729117</v>
+        <v>0.9238025583750485</v>
       </c>
       <c r="E11">
-        <v>1.019921126420359</v>
+        <v>0.9632479662361587</v>
       </c>
       <c r="F11">
-        <v>0.9888366197107221</v>
+        <v>1.039718999030634</v>
       </c>
       <c r="G11">
-        <v>0.8874465598855523</v>
+        <v>1.03369411805726</v>
       </c>
       <c r="H11">
-        <v>0.9538358730806458</v>
+        <v>0.9231870290168694</v>
       </c>
       <c r="I11">
-        <v>0.9538358730806458</v>
+        <v>0.9231870290168694</v>
       </c>
       <c r="J11">
-        <v>1.394999653588981</v>
+        <v>1.138262121873935</v>
       </c>
       <c r="K11">
-        <v>1.394999653588981</v>
+        <v>1.138262121873935</v>
       </c>
       <c r="L11">
-        <v>0.8874465598855523</v>
+        <v>1.03369411805726</v>
       </c>
       <c r="M11">
-        <v>0.920641216483099</v>
+        <v>0.9784405735370647</v>
       </c>
       <c r="N11">
-        <v>0.920641216483099</v>
+        <v>0.9784405735370647</v>
       </c>
       <c r="O11">
-        <v>0.9173790528984384</v>
+        <v>0.9602279018163927</v>
       </c>
       <c r="P11">
-        <v>1.078760695518393</v>
+        <v>1.031714422982688</v>
       </c>
       <c r="Q11">
-        <v>1.078760695518393</v>
+        <v>1.031714422982688</v>
       </c>
       <c r="R11">
-        <v>1.15782043503604</v>
+        <v>1.0583513477055</v>
       </c>
       <c r="S11">
-        <v>1.15782043503604</v>
+        <v>1.0583513477055</v>
       </c>
       <c r="T11">
-        <v>1.025982426402563</v>
+        <v>1.003652132098318</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7983599652305267</v>
+        <v>0.4323755083141466</v>
       </c>
       <c r="D12">
-        <v>0.7681532926363958</v>
+        <v>0.3931587410769016</v>
       </c>
       <c r="E12">
-        <v>2.458348210829846</v>
+        <v>6.803218580355069</v>
       </c>
       <c r="F12">
-        <v>0.9526476350421066</v>
+        <v>0.678895783814436</v>
       </c>
       <c r="G12">
-        <v>1.064917113442109</v>
+        <v>0.9416533124280216</v>
       </c>
       <c r="H12">
-        <v>0.9325997842556422</v>
+        <v>0.4400306085493877</v>
       </c>
       <c r="I12">
-        <v>0.9325997842556422</v>
+        <v>0.4400306085493877</v>
       </c>
       <c r="J12">
-        <v>0.7983599652305267</v>
+        <v>0.4323755083141466</v>
       </c>
       <c r="K12">
-        <v>0.7983599652305267</v>
+        <v>0.4323755083141466</v>
       </c>
       <c r="L12">
-        <v>1.064917113442109</v>
+        <v>0.9416533124280216</v>
       </c>
       <c r="M12">
-        <v>0.9987584488488757</v>
+        <v>0.6908419604887046</v>
       </c>
       <c r="N12">
-        <v>0.9987584488488757</v>
+        <v>0.6908419604887046</v>
       </c>
       <c r="O12">
-        <v>0.9218900634447157</v>
+        <v>0.5916142206847703</v>
       </c>
       <c r="P12">
-        <v>0.931958954309426</v>
+        <v>0.6046864764305186</v>
       </c>
       <c r="Q12">
-        <v>0.931958954309426</v>
+        <v>0.6046864764305186</v>
       </c>
       <c r="R12">
-        <v>0.8985592070397012</v>
+        <v>0.5616087344014257</v>
       </c>
       <c r="S12">
-        <v>0.8985592070397012</v>
+        <v>0.5616087344014257</v>
       </c>
       <c r="T12">
-        <v>1.162504333572771</v>
+        <v>1.614888755756327</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9989636232113126</v>
+        <v>1.394999653588981</v>
       </c>
       <c r="D13">
-        <v>1.119136895830945</v>
+        <v>0.910854725729117</v>
       </c>
       <c r="E13">
-        <v>0.6560394668589072</v>
+        <v>1.019921126420359</v>
       </c>
       <c r="F13">
-        <v>0.9452387543325902</v>
+        <v>0.9888366197107221</v>
       </c>
       <c r="G13">
-        <v>0.9053995703390313</v>
+        <v>0.8874465598855523</v>
       </c>
       <c r="H13">
-        <v>1.374547282337433</v>
+        <v>0.9538358730806458</v>
       </c>
       <c r="I13">
-        <v>1.374547282337433</v>
+        <v>0.9538358730806458</v>
       </c>
       <c r="J13">
-        <v>0.9989636232113126</v>
+        <v>1.394999653588981</v>
       </c>
       <c r="K13">
-        <v>0.9989636232113126</v>
+        <v>1.394999653588981</v>
       </c>
       <c r="L13">
-        <v>0.9053995703390313</v>
+        <v>0.8874465598855523</v>
       </c>
       <c r="M13">
-        <v>1.139973426338232</v>
+        <v>0.920641216483099</v>
       </c>
       <c r="N13">
-        <v>1.139973426338232</v>
+        <v>0.920641216483099</v>
       </c>
       <c r="O13">
-        <v>1.133027916169136</v>
+        <v>0.9173790528984384</v>
       </c>
       <c r="P13">
-        <v>1.092970158629259</v>
+        <v>1.078760695518393</v>
       </c>
       <c r="Q13">
-        <v>1.092970158629259</v>
+        <v>1.078760695518393</v>
       </c>
       <c r="R13">
-        <v>1.069468524774772</v>
+        <v>1.15782043503604</v>
       </c>
       <c r="S13">
-        <v>1.069468524774772</v>
+        <v>1.15782043503604</v>
       </c>
       <c r="T13">
-        <v>0.9998875988183696</v>
+        <v>1.025982426402563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.007481255500000003</v>
+        <v>0.7983599652305267</v>
       </c>
       <c r="D14">
-        <v>-0.003116857</v>
+        <v>0.7681532926363958</v>
       </c>
       <c r="E14">
-        <v>11.47787300000001</v>
+        <v>2.458348210829846</v>
       </c>
       <c r="F14">
-        <v>0.3721673800000003</v>
+        <v>0.9526476350421066</v>
       </c>
       <c r="G14">
-        <v>0.8252917000000006</v>
+        <v>1.064917113442109</v>
       </c>
       <c r="H14">
-        <v>-0.003255679799999996</v>
+        <v>0.9325997842556422</v>
       </c>
       <c r="I14">
-        <v>-0.003255679799999996</v>
+        <v>0.9325997842556422</v>
       </c>
       <c r="J14">
-        <v>0.007481255500000003</v>
+        <v>0.7983599652305267</v>
       </c>
       <c r="K14">
-        <v>0.007481255500000003</v>
+        <v>0.7983599652305267</v>
       </c>
       <c r="L14">
-        <v>0.8252917000000006</v>
+        <v>1.064917113442109</v>
       </c>
       <c r="M14">
-        <v>0.4110180101000003</v>
+        <v>0.9987584488488757</v>
       </c>
       <c r="N14">
-        <v>0.4110180101000003</v>
+        <v>0.9987584488488757</v>
       </c>
       <c r="O14">
-        <v>0.2729730544000002</v>
+        <v>0.9218900634447157</v>
       </c>
       <c r="P14">
-        <v>0.2765057585666669</v>
+        <v>0.931958954309426</v>
       </c>
       <c r="Q14">
-        <v>0.2765057585666669</v>
+        <v>0.931958954309426</v>
       </c>
       <c r="R14">
-        <v>0.2092496328000002</v>
+        <v>0.8985592070397012</v>
       </c>
       <c r="S14">
-        <v>0.2092496328000002</v>
+        <v>0.8985592070397012</v>
       </c>
       <c r="T14">
-        <v>2.112740133116669</v>
+        <v>1.162504333572771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.026860566</v>
+        <v>0.9989636232113126</v>
       </c>
       <c r="D15">
-        <v>0.08708046</v>
+        <v>1.119136895830945</v>
       </c>
       <c r="E15">
-        <v>0.82533516</v>
+        <v>0.6560394668589072</v>
       </c>
       <c r="F15">
-        <v>1.6908934</v>
+        <v>0.9452387543325902</v>
       </c>
       <c r="G15">
-        <v>3.8304141</v>
+        <v>0.9053995703390313</v>
       </c>
       <c r="H15">
-        <v>0.0040030202</v>
+        <v>1.374547282337433</v>
       </c>
       <c r="I15">
-        <v>0.0040030202</v>
+        <v>1.374547282337433</v>
       </c>
       <c r="J15">
-        <v>0.026860566</v>
+        <v>0.9989636232113126</v>
       </c>
       <c r="K15">
-        <v>0.026860566</v>
+        <v>0.9989636232113126</v>
       </c>
       <c r="L15">
-        <v>3.8304141</v>
+        <v>0.9053995703390313</v>
       </c>
       <c r="M15">
-        <v>1.9172085601</v>
+        <v>1.139973426338232</v>
       </c>
       <c r="N15">
-        <v>1.9172085601</v>
+        <v>1.139973426338232</v>
       </c>
       <c r="O15">
-        <v>1.307165860066667</v>
+        <v>1.133027916169136</v>
       </c>
       <c r="P15">
-        <v>1.287092562066667</v>
+        <v>1.092970158629259</v>
       </c>
       <c r="Q15">
-        <v>1.287092562066667</v>
+        <v>1.092970158629259</v>
       </c>
       <c r="R15">
-        <v>0.97203456305</v>
+        <v>1.069468524774772</v>
       </c>
       <c r="S15">
-        <v>0.97203456305</v>
+        <v>1.069468524774772</v>
       </c>
       <c r="T15">
-        <v>1.0774311177</v>
+        <v>0.9998875988183696</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.654601</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="D16">
-        <v>0.05715137000000001</v>
+        <v>-0.003116857</v>
       </c>
       <c r="E16">
-        <v>0.0074812554</v>
+        <v>11.47787300000001</v>
       </c>
       <c r="F16">
-        <v>0.60377661</v>
+        <v>0.3721673800000003</v>
       </c>
       <c r="G16">
-        <v>0.026860481</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="H16">
-        <v>0.0006486686500000001</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="I16">
-        <v>0.0006486686500000001</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="J16">
-        <v>7.654601</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="K16">
-        <v>7.654601</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L16">
-        <v>0.026860481</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="M16">
-        <v>0.013754574825</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="N16">
-        <v>0.013754574825</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="O16">
-        <v>0.02822017321666667</v>
+        <v>0.2729730544000002</v>
       </c>
       <c r="P16">
-        <v>2.560703383216667</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="Q16">
-        <v>2.560703383216667</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="R16">
-        <v>3.8341777874125</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="S16">
-        <v>3.8341777874125</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="T16">
-        <v>1.391753230841667</v>
+        <v>2.112740133116669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.018940386</v>
+        <v>0.026860566</v>
       </c>
       <c r="D17">
-        <v>0.85368298</v>
+        <v>0.08708046</v>
       </c>
       <c r="E17">
-        <v>0.028877645</v>
+        <v>0.82533516</v>
       </c>
       <c r="F17">
-        <v>0.90303793</v>
+        <v>1.6908934</v>
       </c>
       <c r="G17">
-        <v>1.9956158</v>
+        <v>3.8304141</v>
       </c>
       <c r="H17">
-        <v>0.15082658</v>
+        <v>0.0040030202</v>
       </c>
       <c r="I17">
-        <v>0.15082658</v>
+        <v>0.0040030202</v>
       </c>
       <c r="J17">
-        <v>0.018940386</v>
+        <v>0.026860566</v>
       </c>
       <c r="K17">
-        <v>0.018940386</v>
+        <v>0.026860566</v>
       </c>
       <c r="L17">
-        <v>1.9956158</v>
+        <v>3.8304141</v>
       </c>
       <c r="M17">
-        <v>1.07322119</v>
+        <v>1.9172085601</v>
       </c>
       <c r="N17">
-        <v>1.07322119</v>
+        <v>1.9172085601</v>
       </c>
       <c r="O17">
-        <v>1.000041786666667</v>
+        <v>1.307165860066667</v>
       </c>
       <c r="P17">
-        <v>0.7217942553333333</v>
+        <v>1.287092562066667</v>
       </c>
       <c r="Q17">
-        <v>0.7217942553333333</v>
+        <v>1.287092562066667</v>
       </c>
       <c r="R17">
-        <v>0.546080788</v>
+        <v>0.97203456305</v>
       </c>
       <c r="S17">
-        <v>0.546080788</v>
+        <v>0.97203456305</v>
       </c>
       <c r="T17">
-        <v>0.6584968868333333</v>
+        <v>1.0774311177</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.67793789109589</v>
+        <v>7.654601</v>
       </c>
       <c r="D18">
-        <v>0.113632372</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="E18">
-        <v>0.304298500389041</v>
+        <v>0.0074812554</v>
       </c>
       <c r="F18">
-        <v>1.505498774520548</v>
+        <v>0.60377661</v>
       </c>
       <c r="G18">
-        <v>1.402062693835617</v>
+        <v>0.026860481</v>
       </c>
       <c r="H18">
-        <v>0.001350872246849315</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I18">
-        <v>0.001350872246849315</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="J18">
-        <v>2.67793789109589</v>
+        <v>7.654601</v>
       </c>
       <c r="K18">
-        <v>2.67793789109589</v>
+        <v>7.654601</v>
       </c>
       <c r="L18">
-        <v>1.402062693835617</v>
+        <v>0.026860481</v>
       </c>
       <c r="M18">
-        <v>0.7017067830412331</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N18">
-        <v>0.7017067830412331</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O18">
-        <v>0.5056819793608222</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P18">
-        <v>1.360450485726119</v>
+        <v>2.560703383216667</v>
       </c>
       <c r="Q18">
-        <v>1.360450485726119</v>
+        <v>2.560703383216667</v>
       </c>
       <c r="R18">
-        <v>1.689822337068561</v>
+        <v>3.8341777874125</v>
       </c>
       <c r="S18">
-        <v>1.689822337068561</v>
+        <v>3.8341777874125</v>
       </c>
       <c r="T18">
-        <v>1.000796850681324</v>
+        <v>1.391753230841667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.304722441552632</v>
+        <v>0.018940386</v>
       </c>
       <c r="D19">
-        <v>0.7720825663379474</v>
+        <v>0.85368298</v>
       </c>
       <c r="E19">
-        <v>1.59856441045579</v>
+        <v>0.028877645</v>
       </c>
       <c r="F19">
-        <v>1.028342450526316</v>
+        <v>0.90303793</v>
       </c>
       <c r="G19">
-        <v>0.9647919070000001</v>
+        <v>1.9956158</v>
       </c>
       <c r="H19">
-        <v>0.06081105158842105</v>
+        <v>0.15082658</v>
       </c>
       <c r="I19">
-        <v>0.06081105158842105</v>
+        <v>0.15082658</v>
       </c>
       <c r="J19">
-        <v>1.304722441552632</v>
+        <v>0.018940386</v>
       </c>
       <c r="K19">
-        <v>1.304722441552632</v>
+        <v>0.018940386</v>
       </c>
       <c r="L19">
-        <v>0.9647919070000001</v>
+        <v>1.9956158</v>
       </c>
       <c r="M19">
-        <v>0.5128014792942106</v>
+        <v>1.07322119</v>
       </c>
       <c r="N19">
-        <v>0.5128014792942106</v>
+        <v>1.07322119</v>
       </c>
       <c r="O19">
-        <v>0.5992285083087895</v>
+        <v>1.000041786666667</v>
       </c>
       <c r="P19">
-        <v>0.776775133380351</v>
+        <v>0.7217942553333333</v>
       </c>
       <c r="Q19">
-        <v>0.776775133380351</v>
+        <v>0.7217942553333333</v>
       </c>
       <c r="R19">
-        <v>0.9087619604234212</v>
+        <v>0.546080788</v>
       </c>
       <c r="S19">
-        <v>0.9087619604234212</v>
+        <v>0.546080788</v>
       </c>
       <c r="T19">
-        <v>0.954885804576851</v>
+        <v>0.6584968868333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.865244737331579</v>
+        <v>2.67793789109589</v>
       </c>
       <c r="D20">
-        <v>0.5502721510661578</v>
+        <v>0.113632372</v>
       </c>
       <c r="E20">
-        <v>2.895645022052633</v>
+        <v>0.304298500389041</v>
       </c>
       <c r="F20">
-        <v>0.839499502105263</v>
+        <v>1.505498774520548</v>
       </c>
       <c r="G20">
-        <v>1.225597821052632</v>
+        <v>1.402062693835617</v>
       </c>
       <c r="H20">
-        <v>1.71504124877579</v>
+        <v>0.001350872246849315</v>
       </c>
       <c r="I20">
-        <v>1.71504124877579</v>
+        <v>0.001350872246849315</v>
       </c>
       <c r="J20">
-        <v>0.865244737331579</v>
+        <v>2.67793789109589</v>
       </c>
       <c r="K20">
-        <v>0.865244737331579</v>
+        <v>2.67793789109589</v>
       </c>
       <c r="L20">
-        <v>1.225597821052632</v>
+        <v>1.402062693835617</v>
       </c>
       <c r="M20">
-        <v>1.470319534914211</v>
+        <v>0.7017067830412331</v>
       </c>
       <c r="N20">
-        <v>1.470319534914211</v>
+        <v>0.7017067830412331</v>
       </c>
       <c r="O20">
-        <v>1.163637073631526</v>
+        <v>0.5056819793608222</v>
       </c>
       <c r="P20">
-        <v>1.26862793572</v>
+        <v>1.360450485726119</v>
       </c>
       <c r="Q20">
-        <v>1.26862793572</v>
+        <v>1.360450485726119</v>
       </c>
       <c r="R20">
-        <v>1.167782136122895</v>
+        <v>1.689822337068561</v>
       </c>
       <c r="S20">
-        <v>1.167782136122895</v>
+        <v>1.689822337068561</v>
       </c>
       <c r="T20">
-        <v>1.348550080397342</v>
+        <v>1.000796850681324</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.594468388264348</v>
+        <v>1.304722441552632</v>
       </c>
       <c r="D21">
-        <v>1.297889783984052</v>
+        <v>0.7720825663379474</v>
       </c>
       <c r="E21">
-        <v>0.07012133643017217</v>
+        <v>1.59856441045579</v>
       </c>
       <c r="F21">
-        <v>0.9452800615985772</v>
+        <v>1.028342450526316</v>
       </c>
       <c r="G21">
-        <v>0.6985944381668217</v>
+        <v>0.9647919070000001</v>
       </c>
       <c r="H21">
-        <v>0.4790915275389506</v>
+        <v>0.06081105158842105</v>
       </c>
       <c r="I21">
-        <v>0.4790915275389506</v>
+        <v>0.06081105158842105</v>
       </c>
       <c r="J21">
-        <v>1.594468388264348</v>
+        <v>1.304722441552632</v>
       </c>
       <c r="K21">
-        <v>1.594468388264348</v>
+        <v>1.304722441552632</v>
       </c>
       <c r="L21">
-        <v>0.6985944381668217</v>
+        <v>0.9647919070000001</v>
       </c>
       <c r="M21">
-        <v>0.5888429828528862</v>
+        <v>0.5128014792942106</v>
       </c>
       <c r="N21">
-        <v>0.5888429828528862</v>
+        <v>0.5128014792942106</v>
       </c>
       <c r="O21">
-        <v>0.8251919165632747</v>
+        <v>0.5992285083087895</v>
       </c>
       <c r="P21">
-        <v>0.9240514513233733</v>
+        <v>0.776775133380351</v>
       </c>
       <c r="Q21">
-        <v>0.9240514513233732</v>
+        <v>0.776775133380351</v>
       </c>
       <c r="R21">
-        <v>1.091655685558617</v>
+        <v>0.9087619604234212</v>
       </c>
       <c r="S21">
-        <v>1.091655685558617</v>
+        <v>0.9087619604234212</v>
       </c>
       <c r="T21">
-        <v>0.8475742559971534</v>
+        <v>0.954885804576851</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.795543926180049</v>
+        <v>0.865244737331579</v>
       </c>
       <c r="D22">
-        <v>0.8607575583148165</v>
+        <v>0.5502721510661578</v>
       </c>
       <c r="E22">
-        <v>0.9934406675015172</v>
+        <v>2.895645022052633</v>
       </c>
       <c r="F22">
-        <v>1.028542702048549</v>
+        <v>0.839499502105263</v>
       </c>
       <c r="G22">
-        <v>1.121593773365537</v>
+        <v>1.225597821052632</v>
       </c>
       <c r="H22">
-        <v>1.862951715151143</v>
+        <v>1.71504124877579</v>
       </c>
       <c r="I22">
-        <v>1.862951715151143</v>
+        <v>1.71504124877579</v>
       </c>
       <c r="J22">
-        <v>0.795543926180049</v>
+        <v>0.865244737331579</v>
       </c>
       <c r="K22">
-        <v>0.795543926180049</v>
+        <v>0.865244737331579</v>
       </c>
       <c r="L22">
-        <v>1.121593773365537</v>
+        <v>1.225597821052632</v>
       </c>
       <c r="M22">
-        <v>1.49227274425834</v>
+        <v>1.470319534914211</v>
       </c>
       <c r="N22">
-        <v>1.49227274425834</v>
+        <v>1.470319534914211</v>
       </c>
       <c r="O22">
-        <v>1.281767682277166</v>
+        <v>1.163637073631526</v>
       </c>
       <c r="P22">
-        <v>1.26002980489891</v>
+        <v>1.26862793572</v>
       </c>
       <c r="Q22">
-        <v>1.26002980489891</v>
+        <v>1.26862793572</v>
       </c>
       <c r="R22">
-        <v>1.143908335219195</v>
+        <v>1.167782136122895</v>
       </c>
       <c r="S22">
-        <v>1.143908335219195</v>
+        <v>1.167782136122895</v>
       </c>
       <c r="T22">
-        <v>1.110471723760269</v>
+        <v>1.348550080397342</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.532248593482896</v>
+        <v>1.594468388264348</v>
       </c>
       <c r="D23">
-        <v>1.23037663066407</v>
+        <v>1.297889783984052</v>
       </c>
       <c r="E23">
-        <v>0.08048583594240753</v>
+        <v>0.07012133643017217</v>
       </c>
       <c r="F23">
-        <v>0.9583055281286248</v>
+        <v>0.9452800615985772</v>
       </c>
       <c r="G23">
-        <v>0.6693754354963696</v>
+        <v>0.6985944381668217</v>
       </c>
       <c r="H23">
-        <v>0.8486463242385629</v>
+        <v>0.4790915275389506</v>
       </c>
       <c r="I23">
-        <v>0.8486463242385629</v>
+        <v>0.4790915275389506</v>
       </c>
       <c r="J23">
-        <v>1.532248593482896</v>
+        <v>1.594468388264348</v>
       </c>
       <c r="K23">
-        <v>1.532248593482896</v>
+        <v>1.594468388264348</v>
       </c>
       <c r="L23">
-        <v>0.6693754354963696</v>
+        <v>0.6985944381668217</v>
       </c>
       <c r="M23">
-        <v>0.7590108798674662</v>
+        <v>0.5888429828528862</v>
       </c>
       <c r="N23">
-        <v>0.7590108798674662</v>
+        <v>0.5888429828528862</v>
       </c>
       <c r="O23">
-        <v>0.9161327967996676</v>
+        <v>0.8251919165632747</v>
       </c>
       <c r="P23">
-        <v>1.016756784405943</v>
+        <v>0.9240514513233733</v>
       </c>
       <c r="Q23">
-        <v>1.016756784405943</v>
+        <v>0.9240514513233732</v>
       </c>
       <c r="R23">
-        <v>1.145629736675181</v>
+        <v>1.091655685558617</v>
       </c>
       <c r="S23">
-        <v>1.145629736675181</v>
+        <v>1.091655685558617</v>
       </c>
       <c r="T23">
-        <v>0.886573057992155</v>
+        <v>0.8475742559971534</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7371114305529008</v>
+        <v>0.795543926180049</v>
       </c>
       <c r="D24">
-        <v>0.9647145813316587</v>
+        <v>0.8607575583148165</v>
       </c>
       <c r="E24">
-        <v>1.06999539874635</v>
+        <v>0.9934406675015172</v>
       </c>
       <c r="F24">
-        <v>0.9929795423844694</v>
+        <v>1.028542702048549</v>
       </c>
       <c r="G24">
-        <v>1.136844496389179</v>
+        <v>1.121593773365537</v>
       </c>
       <c r="H24">
-        <v>1.430707025136993</v>
+        <v>1.862951715151143</v>
       </c>
       <c r="I24">
-        <v>1.430707025136993</v>
+        <v>1.862951715151143</v>
       </c>
       <c r="J24">
-        <v>0.7371114305529008</v>
+        <v>0.795543926180049</v>
       </c>
       <c r="K24">
-        <v>0.7371114305529008</v>
+        <v>0.795543926180049</v>
       </c>
       <c r="L24">
-        <v>1.136844496389179</v>
+        <v>1.121593773365537</v>
       </c>
       <c r="M24">
-        <v>1.283775760763086</v>
+        <v>1.49227274425834</v>
       </c>
       <c r="N24">
-        <v>1.283775760763086</v>
+        <v>1.49227274425834</v>
       </c>
       <c r="O24">
-        <v>1.177422034285943</v>
+        <v>1.281767682277166</v>
       </c>
       <c r="P24">
-        <v>1.101554317359691</v>
+        <v>1.26002980489891</v>
       </c>
       <c r="Q24">
-        <v>1.101554317359691</v>
+        <v>1.26002980489891</v>
       </c>
       <c r="R24">
-        <v>1.010443595657993</v>
+        <v>1.143908335219195</v>
       </c>
       <c r="S24">
-        <v>1.010443595657993</v>
+        <v>1.143908335219195</v>
       </c>
       <c r="T24">
-        <v>1.055392079090258</v>
+        <v>1.110471723760269</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.427131489860534</v>
+        <v>1.532248593482896</v>
       </c>
       <c r="D25">
-        <v>1.207152507872454</v>
+        <v>1.23037663066407</v>
       </c>
       <c r="E25">
-        <v>0.09326626203199281</v>
+        <v>0.08048583594240753</v>
       </c>
       <c r="F25">
-        <v>0.9867087111524386</v>
+        <v>0.9583055281286248</v>
       </c>
       <c r="G25">
-        <v>0.6377756666989388</v>
+        <v>0.6693754354963696</v>
       </c>
       <c r="H25">
-        <v>1.185897445755346</v>
+        <v>0.8486463242385629</v>
       </c>
       <c r="I25">
-        <v>1.185897445755346</v>
+        <v>0.8486463242385629</v>
       </c>
       <c r="J25">
-        <v>1.427131489860534</v>
+        <v>1.532248593482896</v>
       </c>
       <c r="K25">
-        <v>1.427131489860534</v>
+        <v>1.532248593482896</v>
       </c>
       <c r="L25">
-        <v>0.6377756666989388</v>
+        <v>0.6693754354963696</v>
       </c>
       <c r="M25">
-        <v>0.9118365562271424</v>
+        <v>0.7590108798674662</v>
       </c>
       <c r="N25">
-        <v>0.9118365562271424</v>
+        <v>0.7590108798674662</v>
       </c>
       <c r="O25">
-        <v>1.01027520677558</v>
+        <v>0.9161327967996676</v>
       </c>
       <c r="P25">
-        <v>1.083601534104939</v>
+        <v>1.016756784405943</v>
       </c>
       <c r="Q25">
-        <v>1.083601534104939</v>
+        <v>1.016756784405943</v>
       </c>
       <c r="R25">
-        <v>1.169484023043838</v>
+        <v>1.145629736675181</v>
       </c>
       <c r="S25">
-        <v>1.169484023043838</v>
+        <v>1.145629736675181</v>
       </c>
       <c r="T25">
-        <v>0.9229886805619505</v>
+        <v>0.886573057992155</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.6604465765275324</v>
+        <v>0.7371114305529008</v>
       </c>
       <c r="D26">
-        <v>1.076663490920741</v>
+        <v>0.9647145813316587</v>
       </c>
       <c r="E26">
-        <v>1.138845314061495</v>
+        <v>1.06999539874635</v>
       </c>
       <c r="F26">
-        <v>0.940746703608289</v>
+        <v>0.9929795423844694</v>
       </c>
       <c r="G26">
-        <v>1.149738971935233</v>
+        <v>1.136844496389179</v>
       </c>
       <c r="H26">
-        <v>1.057886562262992</v>
+        <v>1.430707025136993</v>
       </c>
       <c r="I26">
-        <v>1.057886562262992</v>
+        <v>1.430707025136993</v>
       </c>
       <c r="J26">
-        <v>0.6604465765275324</v>
+        <v>0.7371114305529008</v>
       </c>
       <c r="K26">
-        <v>0.6604465765275324</v>
+        <v>0.7371114305529008</v>
       </c>
       <c r="L26">
-        <v>1.149738971935233</v>
+        <v>1.136844496389179</v>
       </c>
       <c r="M26">
-        <v>1.103812767099112</v>
+        <v>1.283775760763086</v>
       </c>
       <c r="N26">
-        <v>1.103812767099112</v>
+        <v>1.283775760763086</v>
       </c>
       <c r="O26">
-        <v>1.094763008372988</v>
+        <v>1.177422034285943</v>
       </c>
       <c r="P26">
-        <v>0.9560240369085856</v>
+        <v>1.101554317359691</v>
       </c>
       <c r="Q26">
-        <v>0.9560240369085856</v>
+        <v>1.101554317359691</v>
       </c>
       <c r="R26">
-        <v>0.8821296718133222</v>
+        <v>1.010443595657993</v>
       </c>
       <c r="S26">
-        <v>0.8821296718133222</v>
+        <v>1.010443595657993</v>
       </c>
       <c r="T26">
-        <v>1.00405460321938</v>
+        <v>1.055392079090258</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.088679845403013</v>
+        <v>1.427131489860534</v>
       </c>
       <c r="D27">
-        <v>1.041917403389881</v>
+        <v>1.207152507872454</v>
       </c>
       <c r="E27">
-        <v>1.696411631949471</v>
+        <v>0.09326626203199281</v>
       </c>
       <c r="F27">
-        <v>0.9104791612041685</v>
+        <v>0.9867087111524386</v>
       </c>
       <c r="G27">
-        <v>0.8718050566115724</v>
+        <v>0.6377756666989388</v>
       </c>
       <c r="H27">
-        <v>0.3193018818930091</v>
+        <v>1.185897445755346</v>
       </c>
       <c r="I27">
-        <v>0.3193018818930091</v>
+        <v>1.185897445755346</v>
       </c>
       <c r="J27">
-        <v>1.088679845403013</v>
+        <v>1.427131489860534</v>
       </c>
       <c r="K27">
-        <v>1.088679845403013</v>
+        <v>1.427131489860534</v>
       </c>
       <c r="L27">
-        <v>0.8718050566115724</v>
+        <v>0.6377756666989388</v>
       </c>
       <c r="M27">
-        <v>0.5955534692522908</v>
+        <v>0.9118365562271424</v>
       </c>
       <c r="N27">
-        <v>0.5955534692522908</v>
+        <v>0.9118365562271424</v>
       </c>
       <c r="O27">
-        <v>0.7443414472981541</v>
+        <v>1.01027520677558</v>
       </c>
       <c r="P27">
-        <v>0.7599289279691982</v>
+        <v>1.083601534104939</v>
       </c>
       <c r="Q27">
-        <v>0.759928927969198</v>
+        <v>1.083601534104939</v>
       </c>
       <c r="R27">
-        <v>0.8421166573276517</v>
+        <v>1.169484023043838</v>
       </c>
       <c r="S27">
-        <v>0.8421166573276517</v>
+        <v>1.169484023043838</v>
       </c>
       <c r="T27">
-        <v>0.9880991634085191</v>
+        <v>0.9229886805619505</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.790000995527917</v>
+        <v>0.6604465765275324</v>
       </c>
       <c r="D28">
-        <v>0.7109428634184668</v>
+        <v>1.076663490920741</v>
       </c>
       <c r="E28">
-        <v>0.9120292923720665</v>
+        <v>1.138845314061495</v>
       </c>
       <c r="F28">
-        <v>0.8853826978965034</v>
+        <v>0.940746703608289</v>
       </c>
       <c r="G28">
-        <v>0.7346944048578182</v>
+        <v>1.149738971935233</v>
       </c>
       <c r="H28">
-        <v>1.121173069659785</v>
+        <v>1.057886562262992</v>
       </c>
       <c r="I28">
-        <v>1.121173069659785</v>
+        <v>1.057886562262992</v>
       </c>
       <c r="J28">
-        <v>1.790000995527917</v>
+        <v>0.6604465765275324</v>
       </c>
       <c r="K28">
-        <v>1.790000995527917</v>
+        <v>0.6604465765275324</v>
       </c>
       <c r="L28">
-        <v>0.7346944048578182</v>
+        <v>1.149738971935233</v>
       </c>
       <c r="M28">
-        <v>0.9279337372588019</v>
+        <v>1.103812767099112</v>
       </c>
       <c r="N28">
-        <v>0.9279337372588019</v>
+        <v>1.103812767099112</v>
       </c>
       <c r="O28">
-        <v>0.8556034459786902</v>
+        <v>1.094763008372988</v>
       </c>
       <c r="P28">
-        <v>1.215289490015174</v>
+        <v>0.9560240369085856</v>
       </c>
       <c r="Q28">
-        <v>1.215289490015173</v>
+        <v>0.9560240369085856</v>
       </c>
       <c r="R28">
-        <v>1.358967366393359</v>
+        <v>0.8821296718133222</v>
       </c>
       <c r="S28">
-        <v>1.358967366393359</v>
+        <v>0.8821296718133222</v>
       </c>
       <c r="T28">
-        <v>1.02570388728876</v>
+        <v>1.00405460321938</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.088679845403013</v>
+      </c>
+      <c r="D29">
+        <v>1.041917403389881</v>
+      </c>
+      <c r="E29">
+        <v>1.696411631949471</v>
+      </c>
+      <c r="F29">
+        <v>0.9104791612041685</v>
+      </c>
+      <c r="G29">
+        <v>0.8718050566115724</v>
+      </c>
+      <c r="H29">
+        <v>0.3193018818930091</v>
+      </c>
+      <c r="I29">
+        <v>0.3193018818930091</v>
+      </c>
+      <c r="J29">
+        <v>1.088679845403013</v>
+      </c>
+      <c r="K29">
+        <v>1.088679845403013</v>
+      </c>
+      <c r="L29">
+        <v>0.8718050566115724</v>
+      </c>
+      <c r="M29">
+        <v>0.5955534692522908</v>
+      </c>
+      <c r="N29">
+        <v>0.5955534692522908</v>
+      </c>
+      <c r="O29">
+        <v>0.7443414472981541</v>
+      </c>
+      <c r="P29">
+        <v>0.7599289279691982</v>
+      </c>
+      <c r="Q29">
+        <v>0.759928927969198</v>
+      </c>
+      <c r="R29">
+        <v>0.8421166573276517</v>
+      </c>
+      <c r="S29">
+        <v>0.8421166573276517</v>
+      </c>
+      <c r="T29">
+        <v>0.9880991634085191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.790000995527917</v>
+      </c>
+      <c r="D30">
+        <v>0.7109428634184668</v>
+      </c>
+      <c r="E30">
+        <v>0.9120292923720665</v>
+      </c>
+      <c r="F30">
+        <v>0.8853826978965034</v>
+      </c>
+      <c r="G30">
+        <v>0.7346944048578182</v>
+      </c>
+      <c r="H30">
+        <v>1.121173069659785</v>
+      </c>
+      <c r="I30">
+        <v>1.121173069659785</v>
+      </c>
+      <c r="J30">
+        <v>1.790000995527917</v>
+      </c>
+      <c r="K30">
+        <v>1.790000995527917</v>
+      </c>
+      <c r="L30">
+        <v>0.7346944048578182</v>
+      </c>
+      <c r="M30">
+        <v>0.9279337372588019</v>
+      </c>
+      <c r="N30">
+        <v>0.9279337372588019</v>
+      </c>
+      <c r="O30">
+        <v>0.8556034459786902</v>
+      </c>
+      <c r="P30">
+        <v>1.215289490015174</v>
+      </c>
+      <c r="Q30">
+        <v>1.215289490015173</v>
+      </c>
+      <c r="R30">
+        <v>1.358967366393359</v>
+      </c>
+      <c r="S30">
+        <v>1.358967366393359</v>
+      </c>
+      <c r="T30">
+        <v>1.02570388728876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.629078288825611</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9290348721176954</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.01608792260931554</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.7750044585518761</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.12896658124529</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.1897674956725643</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.1897674956725643</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.629078288825611</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.629078288825611</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.12896658124529</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.659367038458927</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.659367038458927</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.7492563163451832</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9826041219144884</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9826041219144884</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.144222663642269</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.144222663642269</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.7779899365037254</v>
       </c>
     </row>
